--- a/FpML.V5r3.Applications/ExcelAPI/Spreadsheets/Product Pricers/BulletPaymentPricer.xlsx
+++ b/FpML.V5r3.Applications/ExcelAPI/Spreadsheets/Product Pricers/BulletPaymentPricer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\Visual Studio 2017\Projects\Highlander\FpML.V5r3.Applications\ExcelAPI\Spreadsheets\Product Pricers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\Visual Studio 2019\Projects\Highlander\FpML.V5r3.Applications\ExcelAPI\Spreadsheets\Product Pricers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F9D0C89-28DB-4909-8A15-0A56A72F9085}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83306CE4-0FF2-4F56-AF8A-E73B7CB3C82F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="375" windowWidth="28515" windowHeight="12300" tabRatio="530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2415" yWindow="0" windowWidth="26370" windowHeight="14820" tabRatio="530" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GetInfo &amp; GetInstrumentInfo" sheetId="4" r:id="rId1"/>
@@ -20,7 +20,15 @@
     <definedName name="CurveList">'GetInfo &amp; GetInstrumentInfo'!$A$8:$A$122</definedName>
     <definedName name="Metrics">BulletPayment1!$X$1:$X$4</definedName>
   </definedNames>
-  <calcPr calcId="179017" calcOnSave="0"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1556,8 +1564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G129"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -1581,7 +1589,7 @@
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="str">
         <f>_xll.HLV5r3.Financial.Cache.GetCurveEngineVersionInfo()</f>
-        <v>Version: FpML.V5r3 v1.0 Built on : 7/04/2018, 11:54 AM</v>
+        <v>Version: FpML.V5r3 v1.0 Built on : 26/06/2019, 9:22 AM</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1601,7 +1609,7 @@
       </c>
       <c r="D4" s="21">
         <f ca="1">TODAY()</f>
-        <v>43216</v>
+        <v>43642</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1636,12 +1644,12 @@
     <row r="8" spans="1:7">
       <c r="A8" s="7" t="str">
         <f t="array" ref="A8:A129">_xll.HLV5r3.Financial.Cache.ListUpTo100PricingStructures( C6:D7)</f>
-        <v>Market.QR_LIVE.RateCurve.AUD-BBR-BBSW-1M</v>
+        <v>Market.QR_LIVE.RateCurve.USD-LIBOR-BBA-3M</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-BBR-BBSW-3M</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-BBR-BBSW-1M</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>46</v>
@@ -1650,7 +1658,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.USD-LIBOR-BBA-3M</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-BBR-BBSW-3M</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1675,33 +1683,33 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="7" t="str">
-        <v>Market.QR_LIVE.FxCurve.AUD-EUR</v>
+        <v>Market.QR_LIVE.DiscountCurve.USD-LIBOR-SENIOR</v>
       </c>
       <c r="C15" s="1" t="str">
         <f t="array" ref="C15:D56">_xll.HLV5r3.Financial.Cache.GetQuotedAssetSet( C9)</f>
-        <v>USD-Deposit-1D</v>
+        <v>AUD-XccyDepo-1D</v>
       </c>
       <c r="D15" s="20">
-        <v>2.5065E-2</v>
+        <v>0.05</v>
       </c>
       <c r="F15" s="1">
         <f t="array" aca="1" ref="F15:G57" ca="1">_xll.HLV5r3.Financial.Cache.GetDaysAndZeroRates(C9,D4,D3)</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G15" s="20">
         <f ca="1"/>
-        <v>0</v>
+        <v>5.0310338746119676E-2</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="7" t="str">
-        <v>Market.QR_LIVE.FxCurve.AUD-GBP</v>
+        <v>Market.QR_LIVE.FxCurve.AUD-EUR</v>
       </c>
       <c r="C16" s="1" t="str">
-        <v>USD-Deposit-1M</v>
+        <v>AUD-XccyDepo-TN</v>
       </c>
       <c r="D16" s="20">
-        <v>2.5065E-2</v>
+        <v>0.05</v>
       </c>
       <c r="F16" s="1">
         <f ca="1"/>
@@ -1709,455 +1717,455 @@
       </c>
       <c r="G16" s="20">
         <f ca="1"/>
-        <v>5.1147158832608675E-2</v>
+        <v>5.0310338746119676E-2</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="7" t="str">
-        <v>Market.QR_LIVE.FxCurve.AUD-JPY</v>
+        <v>Market.QR_LIVE.FxCurve.AUD-GBP</v>
       </c>
       <c r="C17" s="1" t="str">
-        <v>USD-Deposit-2M</v>
+        <v>AUD-XccyDepo-1W</v>
       </c>
       <c r="D17" s="20">
-        <v>2.5065E-2</v>
+        <v>0.05</v>
       </c>
       <c r="F17" s="1">
         <f ca="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G17" s="20">
         <f ca="1"/>
-        <v>3.1887821198163913E-2</v>
+        <v>5.0310338746257344E-2</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="7" t="str">
-        <v>Market.QR_LIVE.FxCurve.AUD-NZD</v>
+        <v>Market.QR_LIVE.FxCurve.AUD-JPY</v>
       </c>
       <c r="C18" s="1" t="str">
-        <v>USD-Deposit-3M</v>
+        <v>AUD-XccyDepo-2W</v>
       </c>
       <c r="D18" s="20">
-        <v>2.5065E-2</v>
+        <v>0.05</v>
       </c>
       <c r="F18" s="1">
         <f ca="1"/>
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="G18" s="20">
         <f ca="1"/>
-        <v>2.6241409211349875E-2</v>
+        <v>5.0294167846105076E-2</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="7" t="str">
-        <v>Market.QR_LIVE.FxCurve.EUR-USD</v>
+        <v>Market.QR_LIVE.FxCurve.AUD-NZD</v>
       </c>
       <c r="C19" s="1" t="str">
-        <v>USD-IRSwap-4Y</v>
+        <v>AUD-XccyDepo-1M</v>
       </c>
       <c r="D19" s="20">
-        <v>2.5065E-2</v>
+        <v>0.05</v>
       </c>
       <c r="F19" s="1">
         <f ca="1"/>
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="G19" s="20">
         <f ca="1"/>
-        <v>2.5853206755945379E-2</v>
+        <v>5.0270947449393866E-2</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="7" t="str">
-        <v>Market.QR_LIVE.FxCurve.GBP-USD</v>
+        <v>Market.QR_LIVE.FxCurve.EUR-USD</v>
       </c>
       <c r="C20" s="1" t="str">
-        <v>USD-IRSwap-5Y</v>
+        <v>AUD-XccyDepo-2M</v>
       </c>
       <c r="D20" s="20">
-        <v>2.5065E-2</v>
+        <v>0.05</v>
       </c>
       <c r="F20" s="1">
         <f ca="1"/>
-        <v>92</v>
+        <v>33</v>
       </c>
       <c r="G20" s="20">
         <f ca="1"/>
-        <v>2.5692187636904507E-2</v>
+        <v>5.0212897628407305E-2</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="7" t="str">
-        <v>Market.QR_LIVE.FxCurve.JPY-USD</v>
+        <v>Market.QR_LIVE.FxCurve.GBP-USD</v>
       </c>
       <c r="C21" s="1" t="str">
-        <v>USD-IRSwap-6Y</v>
+        <v>AUD-XccyDepo-3M</v>
       </c>
       <c r="D21" s="20">
-        <v>2.5065E-2</v>
+        <v>0.05</v>
       </c>
       <c r="F21" s="1">
         <f ca="1"/>
-        <v>186</v>
+        <v>63</v>
       </c>
       <c r="G21" s="20">
         <f ca="1"/>
-        <v>2.5559380765413309E-2</v>
+        <v>5.0110018591749572E-2</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="7" t="str">
-        <v>Market.QR_LIVE.FxCurve.NZD-USD</v>
+        <v>Market.QR_LIVE.FxCurve.JPY-USD</v>
       </c>
       <c r="C22" s="1" t="str">
-        <v>USD-IRSwap-7Y</v>
+        <v>AUD-XccySwap-6M</v>
       </c>
       <c r="D22" s="20">
-        <v>2.5065E-2</v>
+        <v>0.05</v>
       </c>
       <c r="F22" s="1">
         <f ca="1"/>
-        <v>278</v>
+        <v>96</v>
       </c>
       <c r="G22" s="20">
         <f ca="1"/>
-        <v>2.5508624626057852E-2</v>
+        <v>4.99972840044558E-2</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-AONIA-OIS-COMPOUND</v>
+        <v>Market.QR_LIVE.FxCurve.NZD-USD</v>
       </c>
       <c r="C23" s="1" t="str">
-        <v>USD-IRSwap-8Y</v>
+        <v>AUD-XccySwap-9M</v>
       </c>
       <c r="D23" s="20">
-        <v>2.5065E-2</v>
+        <v>0.05</v>
       </c>
       <c r="F23" s="1">
         <f ca="1"/>
-        <v>368</v>
+        <v>187</v>
       </c>
       <c r="G23" s="20">
         <f ca="1"/>
-        <v>2.5482263136340499E-2</v>
+        <v>5.0209287034203243E-2</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-BBR-BBSW-2M</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-AONIA-OIS-COMPOUND</v>
       </c>
       <c r="C24" s="1" t="str">
-        <v>USD-IRSwap-9Y</v>
+        <v>AUD-XccySwap-1Y</v>
       </c>
       <c r="D24" s="20">
-        <v>2.5065E-2</v>
+        <v>0.05</v>
       </c>
       <c r="F24" s="1">
         <f ca="1"/>
-        <v>732</v>
+        <v>278</v>
       </c>
       <c r="G24" s="20">
         <f ca="1"/>
-        <v>2.5430476960915271E-2</v>
+        <v>5.020913340554678E-2</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.EUR-EURIBOR-Reuters-1M</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-BBR-BBSW-2M</v>
       </c>
       <c r="C25" s="1" t="str">
-        <v>USD-IRSwap-10Y</v>
+        <v>AUD-XccySwap-2Y</v>
       </c>
       <c r="D25" s="20">
-        <v>2.5065E-2</v>
+        <v>0.05</v>
       </c>
       <c r="F25" s="1">
         <f ca="1"/>
-        <v>1097</v>
+        <v>369</v>
       </c>
       <c r="G25" s="20">
         <f ca="1"/>
-        <v>2.5395132041982293E-2</v>
+        <v>4.9996612004751029E-2</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.EUR-EURIBOR-Reuters-3M</v>
+        <v>Market.QR_LIVE.RateCurve.EUR-EURIBOR-Reuters-1M</v>
       </c>
       <c r="C26" s="1" t="str">
-        <v>USD-IRSwap-12Y</v>
+        <v>AUD-XccySwap-3Y</v>
       </c>
       <c r="D26" s="20">
-        <v>2.5065E-2</v>
+        <v>0.05</v>
       </c>
       <c r="F26" s="1">
         <f ca="1"/>
-        <v>1462</v>
+        <v>733</v>
       </c>
       <c r="G26" s="20">
         <f ca="1"/>
-        <v>2.4970356130965321E-2</v>
+        <v>4.999871141768697E-2</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.EUR-EURIBOR-Reuters-6M</v>
+        <v>Market.QR_LIVE.RateCurve.EUR-EURIBOR-Reuters-3M</v>
       </c>
       <c r="C27" s="1" t="str">
-        <v>USD-IRSwap-15Y</v>
+        <v>AUD-XccySwap-4Y</v>
       </c>
       <c r="D27" s="20">
-        <v>2.5065E-2</v>
+        <v>0.05</v>
       </c>
       <c r="F27" s="1">
         <f ca="1"/>
-        <v>1827</v>
+        <v>1098</v>
       </c>
       <c r="G27" s="20">
         <f ca="1"/>
-        <v>2.4973590771725895E-2</v>
+        <v>4.9999113972221565E-2</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.EUR-LIBOR-BBA-1M</v>
+        <v>Market.QR_LIVE.RateCurve.EUR-EURIBOR-Reuters-6M</v>
       </c>
       <c r="C28" s="1" t="str">
-        <v>USD-IRSwap-20Y</v>
+        <v>AUD-XccySwap-5Y</v>
       </c>
       <c r="D28" s="20">
-        <v>2.5065E-2</v>
+        <v>0.05</v>
       </c>
       <c r="F28" s="1">
         <f ca="1"/>
-        <v>2195</v>
+        <v>1463</v>
       </c>
       <c r="G28" s="20">
         <f ca="1"/>
-        <v>2.4964579619700444E-2</v>
+        <v>4.9999328207604776E-2</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.EUR-LIBOR-BBA-3M</v>
+        <v>Market.QR_LIVE.RateCurve.EUR-LIBOR-BBA-1M</v>
       </c>
       <c r="C29" s="1" t="str">
-        <v>USD-IRFuture-ED-1</v>
+        <v>AUD-XccySwap-6Y</v>
       </c>
       <c r="D29" s="20">
-        <v>2.5065E-2</v>
+        <v>0.05</v>
       </c>
       <c r="F29" s="1">
         <f ca="1"/>
-        <v>2923</v>
+        <v>1829</v>
       </c>
       <c r="G29" s="20">
         <f ca="1"/>
-        <v>2.4969917965051991E-2</v>
+        <v>4.9999290077511027E-2</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.EUR-LIBOR-BBA-6M</v>
+        <v>Market.QR_LIVE.RateCurve.EUR-LIBOR-BBA-3M</v>
       </c>
       <c r="C30" s="1" t="str">
-        <v>USD-IRFuture-ED-2</v>
+        <v>AUD-XccySwap-7Y</v>
       </c>
       <c r="D30" s="20">
-        <v>2.5065E-2</v>
+        <v>0.05</v>
       </c>
       <c r="F30" s="1">
         <f ca="1"/>
-        <v>3288</v>
+        <v>2196</v>
       </c>
       <c r="G30" s="20">
         <f ca="1"/>
-        <v>2.4971762901635941E-2</v>
+        <v>4.9999082488906055E-2</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.GBP-LIBOR-BBA-3M</v>
+        <v>Market.QR_LIVE.RateCurve.EUR-LIBOR-BBA-6M</v>
       </c>
       <c r="C31" s="1" t="str">
-        <v>USD-IRFuture-ED-3</v>
+        <v>AUD-XccySwap-8Y</v>
       </c>
       <c r="D31" s="20">
-        <v>2.5065E-2</v>
+        <v>0.05</v>
       </c>
       <c r="F31" s="1">
         <f ca="1"/>
-        <v>3654</v>
+        <v>2560</v>
       </c>
       <c r="G31" s="20">
         <f ca="1"/>
-        <v>2.4966423979636332E-2</v>
+        <v>4.9999334459748468E-2</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.JPY-LIBOR-BBA-1M</v>
+        <v>Market.QR_LIVE.RateCurve.GBP-LIBOR-BBA-3M</v>
       </c>
       <c r="C32" s="1" t="str">
-        <v>USD-IRFuture-ED-4</v>
+        <v>AUD-XccySwap-9Y</v>
       </c>
       <c r="D32" s="20">
-        <v>2.5065E-2</v>
-      </c>
-      <c r="F32" s="1" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G32" s="20" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
+        <v>0.05</v>
+      </c>
+      <c r="F32" s="1">
+        <f ca="1"/>
+        <v>2924</v>
+      </c>
+      <c r="G32" s="20">
+        <f ca="1"/>
+        <v>4.9999518704429313E-2</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.JPY-LIBOR-BBA-3M</v>
+        <v>Market.QR_LIVE.RateCurve.JPY-LIBOR-BBA-1M</v>
       </c>
       <c r="C33" s="1" t="str">
-        <v>USD-IRFuture-ED-5</v>
+        <v>AUD-XccySwap-10Y</v>
       </c>
       <c r="D33" s="20">
-        <v>2.5065E-2</v>
-      </c>
-      <c r="F33" s="1" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G33" s="20" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
+        <v>0.05</v>
+      </c>
+      <c r="F33" s="1">
+        <f ca="1"/>
+        <v>3290</v>
+      </c>
+      <c r="G33" s="20">
+        <f ca="1"/>
+        <v>4.9999473072583456E-2</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.JPY-LIBOR-BBA-6M</v>
+        <v>Market.QR_LIVE.RateCurve.JPY-LIBOR-BBA-3M</v>
       </c>
       <c r="C34" s="1" t="str">
-        <v>USD-IRFuture-ED-6</v>
+        <v>AUD-XccySwap-12Y</v>
       </c>
       <c r="D34" s="20">
-        <v>2.5065E-2</v>
-      </c>
-      <c r="F34" s="1" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G34" s="20" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
+        <v>0.05</v>
+      </c>
+      <c r="F34" s="1">
+        <f ca="1"/>
+        <v>3655</v>
+      </c>
+      <c r="G34" s="20">
+        <f ca="1"/>
+        <v>4.9999522631222426E-2</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.JPY-LIBOR-ISDA-1M</v>
+        <v>Market.QR_LIVE.RateCurve.JPY-LIBOR-BBA-6M</v>
       </c>
       <c r="C35" s="1" t="str">
-        <v>USD-IRFuture-ED-7</v>
+        <v>AUD-XccySwap-15Y</v>
       </c>
       <c r="D35" s="20">
-        <v>2.5065E-2</v>
-      </c>
-      <c r="F35" s="1" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G35" s="20" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
+        <v>0.05</v>
+      </c>
+      <c r="F35" s="1">
+        <f ca="1"/>
+        <v>4387</v>
+      </c>
+      <c r="G35" s="20">
+        <f ca="1"/>
+        <v>4.9999440291773389E-2</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.JPY-LIBOR-ISDA-3M</v>
+        <v>Market.QR_LIVE.RateCurve.JPY-LIBOR-ISDA-1M</v>
       </c>
       <c r="C36" s="1" t="str">
-        <v>USD-IRFuture-ED-8</v>
+        <v>AUD-XccySwap-20Y</v>
       </c>
       <c r="D36" s="20">
-        <v>2.5065E-2</v>
-      </c>
-      <c r="F36" s="1" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G36" s="20" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
+        <v>0.05</v>
+      </c>
+      <c r="F36" s="1">
+        <f ca="1"/>
+        <v>5481</v>
+      </c>
+      <c r="G36" s="20">
+        <f ca="1"/>
+        <v>4.9999603023955785E-2</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.JPY-LIBOR-ISDA-6M</v>
+        <v>Market.QR_LIVE.RateCurve.JPY-LIBOR-ISDA-3M</v>
       </c>
       <c r="C37" s="1" t="str">
-        <v>USD-IRFuture-ED-9</v>
+        <v>AUD-XccySwap-25Y</v>
       </c>
       <c r="D37" s="20">
-        <v>2.5065E-2</v>
-      </c>
-      <c r="F37" s="1" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G37" s="20" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
+        <v>0.05</v>
+      </c>
+      <c r="F37" s="1">
+        <f ca="1"/>
+        <v>7307</v>
+      </c>
+      <c r="G37" s="20">
+        <f ca="1"/>
+        <v>4.9999642665456534E-2</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.NZD-BBR-FRA-1M</v>
+        <v>Market.QR_LIVE.RateCurve.JPY-LIBOR-ISDA-6M</v>
       </c>
       <c r="C38" s="1" t="str">
-        <v>USD-IRFuture-ED-10</v>
+        <v>AUD-XccySwap-30Y</v>
       </c>
       <c r="D38" s="20">
-        <v>2.5065E-2</v>
-      </c>
-      <c r="F38" s="1" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G38" s="20" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
+        <v>0.05</v>
+      </c>
+      <c r="F38" s="1">
+        <f ca="1"/>
+        <v>9134</v>
+      </c>
+      <c r="G38" s="20">
+        <f ca="1"/>
+        <v>4.9999626539436903E-2</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.NZD-BBR-FRA-3M</v>
-      </c>
-      <c r="C39" s="1" t="str">
-        <v>USD-IRFuture-ED-11</v>
-      </c>
-      <c r="D39" s="20">
-        <v>2.5065E-2</v>
-      </c>
-      <c r="F39" s="1" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G39" s="20" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
+        <v>Market.QR_LIVE.RateCurve.NZD-BBR-FRA-1M</v>
+      </c>
+      <c r="C39" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D39" s="20" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F39" s="1">
+        <f ca="1"/>
+        <v>10960</v>
+      </c>
+      <c r="G39" s="20">
+        <f ca="1"/>
+        <v>4.9999652733631272E-2</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.NZD-BBR-FRA-6M</v>
-      </c>
-      <c r="C40" s="1" t="str">
-        <v>USD-IRFuture-ED-12</v>
-      </c>
-      <c r="D40" s="20">
-        <v>2.5065E-2</v>
+        <v>Market.QR_LIVE.RateCurve.NZD-BBR-FRA-3M</v>
+      </c>
+      <c r="C40" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D40" s="20" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F40" s="1" t="e">
         <f ca="1"/>
@@ -2170,13 +2178,13 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.USD-LIBOR-BBA-1M</v>
-      </c>
-      <c r="C41" s="1" t="str">
-        <v>AUDUSD-FxForward-0D</v>
-      </c>
-      <c r="D41" s="1">
-        <v>-2146826259</v>
+        <v>Market.QR_LIVE.RateCurve.NZD-BBR-FRA-6M</v>
+      </c>
+      <c r="C41" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D41" s="1" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F41" s="1" t="e">
         <f ca="1"/>
@@ -2189,13 +2197,13 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="7" t="str">
-        <v>Market.QR_LIVE.DiscountCurve.CHF-LIBOR-SENIOR</v>
-      </c>
-      <c r="C42" s="1" t="str">
-        <v>AUDUSD-FxForward-1D</v>
-      </c>
-      <c r="D42" s="1">
-        <v>-2146826259</v>
+        <v>Market.QR_LIVE.RateCurve.USD-LIBOR-BBA-1M</v>
+      </c>
+      <c r="C42" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D42" s="1" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F42" s="1" t="e">
         <f ca="1"/>
@@ -2208,13 +2216,13 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.USD-LIBOR-BBA-6M</v>
-      </c>
-      <c r="C43" s="1" t="str">
-        <v>AUDUSD-FxSpot-SP</v>
-      </c>
-      <c r="D43" s="1">
-        <v>-2146826259</v>
+        <v>Market.QR_LIVE.DiscountCurve.CHF-LIBOR-SENIOR</v>
+      </c>
+      <c r="C43" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D43" s="1" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F43" s="1" t="e">
         <f ca="1"/>
@@ -2227,13 +2235,13 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.GBP-LIBOR-BBA-1M</v>
-      </c>
-      <c r="C44" s="1" t="str">
-        <v>AUDUSD-FxForward-1M</v>
-      </c>
-      <c r="D44" s="1">
-        <v>-2146826259</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-BBR-BBSW-6M</v>
+      </c>
+      <c r="C44" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D44" s="1" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F44" s="1" t="e">
         <f ca="1"/>
@@ -2246,13 +2254,13 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.GBP-LIBOR-BBA-6M</v>
-      </c>
-      <c r="C45" s="1" t="str">
-        <v>AUDUSD-FxForward-2M</v>
-      </c>
-      <c r="D45" s="1">
-        <v>-2146826259</v>
+        <v>Market.QR_LIVE.FxCurve.CHF-USD</v>
+      </c>
+      <c r="C45" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D45" s="1" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F45" s="1" t="e">
         <f ca="1"/>
@@ -2265,13 +2273,13 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-BBR-BBSW-6M</v>
-      </c>
-      <c r="C46" s="1" t="str">
-        <v>AUDUSD-FxForward-3M</v>
-      </c>
-      <c r="D46" s="1">
-        <v>-2146826259</v>
+        <v>Market.QR_LIVE.RateCurve.USD-LIBOR-BBA-6M</v>
+      </c>
+      <c r="C46" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D46" s="1" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F46" s="1" t="e">
         <f ca="1"/>
@@ -2284,13 +2292,13 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="7" t="str">
-        <v>Market.QR_LIVE.FxCurve.CHF-USD</v>
-      </c>
-      <c r="C47" s="1" t="str">
-        <v>AUDUSD-FxForward-6M</v>
-      </c>
-      <c r="D47" s="1">
-        <v>-2146826259</v>
+        <v>Market.QR_LIVE.RateCurve.GBP-LIBOR-BBA-1M</v>
+      </c>
+      <c r="C47" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D47" s="1" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F47" s="1" t="e">
         <f ca="1"/>
@@ -2303,13 +2311,13 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="7" t="str">
-        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-BBR-BBSW-3M</v>
-      </c>
-      <c r="C48" s="1" t="str">
-        <v>AUDUSD-FxForward-9M</v>
-      </c>
-      <c r="D48" s="1">
-        <v>-2146826259</v>
+        <v>Market.QR_LIVE.RateCurve.GBP-LIBOR-BBA-6M</v>
+      </c>
+      <c r="C48" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D48" s="1" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F48" s="1" t="e">
         <f ca="1"/>
@@ -2322,13 +2330,13 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="7" t="str">
-        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-BBR-BBSW-1M</v>
-      </c>
-      <c r="C49" s="1" t="str">
-        <v>AUDUSD-FxForward-1Y</v>
-      </c>
-      <c r="D49" s="1">
-        <v>-2146826259</v>
+        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-BBR-BBSW-3M</v>
+      </c>
+      <c r="C49" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D49" s="1" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F49" s="1" t="e">
         <f ca="1"/>
@@ -2341,13 +2349,13 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="7" t="str">
-        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-BBR-BBSW-6M</v>
-      </c>
-      <c r="C50" s="1" t="str">
-        <v>AUDUSD-FxForward-2Y</v>
-      </c>
-      <c r="D50" s="1">
-        <v>-2146826259</v>
+        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-BBR-BBSW-1M</v>
+      </c>
+      <c r="C50" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D50" s="1" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F50" s="1" t="e">
         <f ca="1"/>
@@ -2360,13 +2368,13 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="7" t="str">
-        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-IRSwap-5Y</v>
-      </c>
-      <c r="C51" s="1" t="str">
-        <v>AUDUSD-FxForward-3Y</v>
-      </c>
-      <c r="D51" s="1">
-        <v>-2146826259</v>
+        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-BBR-BBSW-6M</v>
+      </c>
+      <c r="C51" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D51" s="1" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F51" s="1" t="e">
         <f ca="1"/>
@@ -2379,13 +2387,13 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="7" t="str">
-        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-IRSwap-10Y</v>
-      </c>
-      <c r="C52" s="1" t="str">
-        <v>AUDUSD-FxForward-4Y</v>
-      </c>
-      <c r="D52" s="1">
-        <v>-2146826259</v>
+        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-IRSwap-5Y</v>
+      </c>
+      <c r="C52" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D52" s="1" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F52" s="1" t="e">
         <f ca="1"/>
@@ -2398,13 +2406,13 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.CHF-LIBOR-BBA-1M</v>
-      </c>
-      <c r="C53" s="1" t="str">
-        <v>AUDUSD-FxForward-5Y</v>
-      </c>
-      <c r="D53" s="1">
-        <v>-2146826259</v>
+        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-IRSwap-10Y</v>
+      </c>
+      <c r="C53" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D53" s="1" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F53" s="1" t="e">
         <f ca="1"/>
@@ -2417,13 +2425,13 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.CHF-LIBOR-BBA-6M</v>
-      </c>
-      <c r="C54" s="1" t="str">
-        <v>AUDUSD-FxForward-6Y</v>
-      </c>
-      <c r="D54" s="1">
-        <v>-2146826259</v>
+        <v>Market.QR_LIVE.RateCurve.CHF-LIBOR-BBA-1M</v>
+      </c>
+      <c r="C54" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D54" s="1" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F54" s="1" t="e">
         <f ca="1"/>
@@ -2436,13 +2444,13 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.CHF-LIBOR-BBA-3M</v>
-      </c>
-      <c r="C55" s="1" t="str">
-        <v>AUDUSD-FxForward-8Y</v>
-      </c>
-      <c r="D55" s="1">
-        <v>-2146826259</v>
+        <v>Market.QR_LIVE.RateCurve.CHF-LIBOR-BBA-6M</v>
+      </c>
+      <c r="C55" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D55" s="1" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F55" s="1" t="e">
         <f ca="1"/>
@@ -2455,13 +2463,13 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.EUR-EURIBOR-Telerate-6M</v>
-      </c>
-      <c r="C56" s="1" t="str">
-        <v>AUDUSD-FxForward-9Y</v>
-      </c>
-      <c r="D56" s="1">
-        <v>-2146826259</v>
+        <v>Market.QR_LIVE.RateCurve.CHF-LIBOR-BBA-3M</v>
+      </c>
+      <c r="C56" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D56" s="1" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F56" s="1" t="e">
         <f ca="1"/>
@@ -2474,7 +2482,7 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.EUR-EURIBOR-Telerate-3M</v>
+        <v>Market.QR_LIVE.RateCurve.EUR-EURIBOR-Telerate-6M</v>
       </c>
       <c r="F57" s="1" t="e">
         <f ca="1"/>
@@ -2487,247 +2495,247 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.EUR-EURIBOR-Telerate-1M</v>
+        <v>Market.QR_LIVE.RateCurve.EUR-EURIBOR-Telerate-3M</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="7" t="str">
-        <v>Market.QR_LIVE.RateVolatilityMatrix.EUR-IRSwap-5Y</v>
+        <v>Market.QR_LIVE.RateCurve.EUR-EURIBOR-Telerate-1M</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-Deposit-1D</v>
+        <v>Market.QR_LIVE.RateVolatilityMatrix.EUR-IRSwap-5Y</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-Deposit-1W</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-Deposit-1M</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-Deposit-2W</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-Deposit-2M</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-Deposit-1M</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-Deposit-3M</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-Deposit-2M</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRFuture-IR-1</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-Deposit-3M</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRFuture-IR-2</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRFuture-IR-1</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRFuture-IR-3</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRFuture-IR-2</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRFuture-IR-4</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRFuture-IR-3</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRFuture-IR-5</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRFuture-IR-4</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRFuture-IR-6</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRFuture-IR-5</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRFuture-IR-7</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRFuture-IR-6</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRFuture-IR-8</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRFuture-IR-7</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-3Y</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRFuture-IR-8</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-4Y</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-3Y</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-5Y</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-4Y</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-6Y</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-5Y</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-7Y</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-6Y</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-8Y</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-7Y</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-9Y</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-8Y</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-10Y</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-9Y</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-15Y</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-10Y</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-20Y</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-15Y</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-Deposit-1D</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-20Y</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-Deposit-1W</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" s="7" t="str">
-        <v>Market.QR_LIVE.ClearedRateCurve.USD-LIBOR-ISDA-6M</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-Deposit-2W</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="7" t="str">
-        <v>Market.QR_LIVE.RateBasisCurve.AUD-LIBOR-BBA-1M</v>
+        <v>Market.QR_LIVE.ClearedRateCurve.USD-LIBOR-ISDA-6M</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M</v>
+        <v>Market.QR_LIVE.RateBasisCurve.AUD-LIBOR-BBA-1M</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-6M</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-1M</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-6M</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.GBP-LIBOR-ISDA-3M</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-1M</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.GBP-LIBOR-ISDA-1M</v>
+        <v>Market.QR_LIVE.RateCurve.GBP-LIBOR-ISDA-3M</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.USD-Federal Funds-H15-OIS-COMPOUND-1D</v>
+        <v>Market.QR_LIVE.RateCurve.GBP-LIBOR-ISDA-1M</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="7" t="str">
-        <v>Market.QR_LIVE.DiscountCurve.USD-OIS-SENIOR</v>
+        <v>Market.QR_LIVE.RateCurve.USD-Federal Funds-H15-OIS-COMPOUND-1D</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.GBP-LIBOR-ISDA-6M</v>
+        <v>Market.QR_LIVE.DiscountCurve.USD-OIS-SENIOR</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="7" t="str">
-        <v>Market.QR_LIVE.ExchangeTradedCurve.AUD-ASX-IR</v>
+        <v>Market.QR_LIVE.RateCurve.USD-LIBOR-ISDA-6M</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" s="7" t="str">
-        <v>Market.QR_LIVE.ExchangeTradedCurve.ExchangeTradedCurve.AUD-ASXT-IR</v>
+        <v>Market.QR_LIVE.RateCurve.GBP-LIBOR-ISDA-6M</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-AONIA-OIS-COMPOUND-1D</v>
+        <v>Market.QR_LIVE.ExchangeTradedCurve.ExchangeTradedCurve.AUD-ASXT-IR</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" s="7" t="str">
-        <v>Market.QR_LIVE.DiscountCurve.AUD-WATC-SENIOR</v>
+        <v>Market.QR_LIVE.ExchangeTradedCurve.AUD-ASX-IR</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-WATC-SECURED</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-AONIA-OIS-COMPOUND-1D</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="7" t="str">
-        <v>Market.QR_LIVE.BondCurve.AUD-Govt:WATC:Fixed:7-15/10/2019</v>
+        <v>Market.QR_LIVE.EquityCurve.AUD-QBE.AU</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" s="7" t="str">
-        <v>Market.QR_LIVE.EquityCurve.AUD-QBE.AU</v>
+        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-Xibor-3M</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" s="7" t="str">
-        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-Xibor-3M</v>
+        <v>Market.QR_LIVE.RateVolatilityMatrix.Instrument/String=AUD-BBR-BBSW-1M</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" s="7" t="str">
-        <v>Market.QR_LIVE.RateVolatilityMatrix.Instrument/String=AUD-BBR-BBSW-1M</v>
+        <v>Market.QR_LIVE.RateVolatilityMatrix.Instrument/String=AUD-IRSwap-1Y</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" s="7" t="str">
-        <v>Market.QR_LIVE.RateVolatilityMatrix.Instrument/String=AUD-IRSwap-1Y</v>
+        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-BBR-BBSW</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" s="7" t="str">
-        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-BBR-BBSW</v>
+        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-IRSwap</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" s="7" t="str">
-        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-IRSwap</v>
+        <v>Market.QR_LIVE.RateATMVolatilityMatrix.AUD-IRSwap-SydneySwapDesk</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" s="7" t="str">
-        <v>Market.QR_LIVE.RateATMVolatilityMatrix.AUD-IRSwap-SydneySwapDesk</v>
+        <v>Market.QR_LIVE.ExchangeTradedCurve.AUD-ASXT-IR</v>
       </c>
     </row>
     <row r="107" spans="1:1">
@@ -2861,7 +2869,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:AB52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
@@ -2976,11 +2984,11 @@
       </c>
       <c r="F3" s="13">
         <f ca="1">TODAY()</f>
-        <v>43216</v>
+        <v>43642</v>
       </c>
       <c r="G3" s="13">
         <f ca="1">F3+90</f>
-        <v>43306</v>
+        <v>43732</v>
       </c>
       <c r="H3" s="12" t="s">
         <v>23</v>
@@ -3003,7 +3011,7 @@
       </c>
       <c r="N3" s="12" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.ValueTrade(M3,D3,Metrics,H3,F3,$AA$3:$AB$3)</f>
-        <v>ValuationReport.LOCAL_USER.SpreadSheet.bulletPayment.t0001.LOCAL_USER.2018-04-26</v>
+        <v>ValuationReport.LOCAL_USER.SpreadSheet.bulletPayment.t0001.LOCAL_USER.2019-06-26</v>
       </c>
       <c r="O3" s="12" t="str">
         <f t="array" aca="1" ref="O3:W4" ca="1">TRANSPOSE(_xll.HLV5r3.Financial.Cache.ViewValuationReport(N3))</f>
@@ -3069,7 +3077,7 @@
       <c r="N4" s="15"/>
       <c r="O4" s="17">
         <f ca="1"/>
-        <v>993771.92605997203</v>
+        <v>987818.12838638504</v>
       </c>
       <c r="P4" s="17">
         <f ca="1"/>
@@ -3077,23 +3085,23 @@
       </c>
       <c r="Q4" s="17">
         <f ca="1"/>
-        <v>24.349621344103902</v>
+        <v>24.057988095832854</v>
       </c>
       <c r="R4" s="17">
         <f ca="1"/>
-        <v>24.3517225087502</v>
+        <v>24.062036675786672</v>
       </c>
       <c r="S4" s="17">
         <f ca="1"/>
-        <v>24.3517225087502</v>
+        <v>24.062036675786672</v>
       </c>
       <c r="T4" s="17">
         <f ca="1"/>
-        <v>1987543.8521199441</v>
+        <v>1975636.2567727701</v>
       </c>
       <c r="U4" s="17">
         <f ca="1"/>
-        <v>993771.92605997203</v>
+        <v>987818.12838638504</v>
       </c>
       <c r="V4" s="17">
         <f ca="1"/>
@@ -3125,11 +3133,11 @@
       </c>
       <c r="F5" s="13">
         <f ca="1">F3</f>
-        <v>43216</v>
+        <v>43642</v>
       </c>
       <c r="G5" s="13">
         <f ca="1">G3+5</f>
-        <v>43311</v>
+        <v>43737</v>
       </c>
       <c r="H5" s="12" t="str">
         <f>H3</f>
@@ -3156,7 +3164,7 @@
       </c>
       <c r="N5" s="22" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.ValueTrade(M5,D5,Metrics,H5,F5,$AA$3:$AB$3)</f>
-        <v>ValuationReport.LOCAL_USER.SpreadSheet.bulletPayment.t0002.LOCAL_USER.2018-04-26</v>
+        <v>ValuationReport.LOCAL_USER.SpreadSheet.bulletPayment.t0002.LOCAL_USER.2019-06-26</v>
       </c>
       <c r="O5" s="22" t="str">
         <f t="array" aca="1" ref="O5:W6" ca="1">TRANSPOSE(_xll.HLV5r3.Financial.Cache.ViewValuationReport(N5))</f>
@@ -3219,7 +3227,7 @@
       <c r="N6" s="15"/>
       <c r="O6" s="17">
         <f ca="1"/>
-        <v>993427.70254405402</v>
+        <v>987016.55543465691</v>
       </c>
       <c r="P6" s="17">
         <f ca="1"/>
@@ -3227,27 +3235,27 @@
       </c>
       <c r="Q6" s="17">
         <f ca="1"/>
-        <v>25.693491110390084</v>
+        <v>25.641158715898897</v>
       </c>
       <c r="R6" s="17">
         <f ca="1"/>
-        <v>25.699653480446631</v>
+        <v>25.65609855614154</v>
       </c>
       <c r="S6" s="17">
         <f ca="1"/>
-        <v>24.67927435603255</v>
+        <v>24.372455550268484</v>
       </c>
       <c r="T6" s="17">
         <f ca="1"/>
-        <v>1.020379124414083</v>
+        <v>1.2836430058730552</v>
       </c>
       <c r="U6" s="17">
         <f ca="1"/>
-        <v>1986855.405088108</v>
+        <v>1974033.1108693138</v>
       </c>
       <c r="V6" s="17">
         <f ca="1"/>
-        <v>993427.70254405402</v>
+        <v>987016.55543465703</v>
       </c>
       <c r="W6" s="17">
         <f ca="1"/>
@@ -3280,11 +3288,11 @@
       </c>
       <c r="F7" s="13">
         <f ca="1">F5</f>
-        <v>43216</v>
+        <v>43642</v>
       </c>
       <c r="G7" s="13">
         <f ca="1">G5+5</f>
-        <v>43316</v>
+        <v>43742</v>
       </c>
       <c r="H7" s="12" t="str">
         <f>H5</f>
@@ -3311,7 +3319,7 @@
       </c>
       <c r="N7" s="22" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.ValueTrade(M7,D7,Metrics,H7,F7,$AA$3:$AB$3)</f>
-        <v>ValuationReport.LOCAL_USER.SpreadSheet.bulletPayment.t0003.LOCAL_USER.2018-04-26</v>
+        <v>ValuationReport.LOCAL_USER.SpreadSheet.bulletPayment.t0003.LOCAL_USER.2019-06-26</v>
       </c>
       <c r="O7" s="22" t="str">
         <f t="array" aca="1" ref="O7:W8" ca="1">TRANSPOSE(_xll.HLV5r3.Financial.Cache.ViewValuationReport(N7))</f>
@@ -3374,7 +3382,7 @@
       <c r="N8" s="15"/>
       <c r="O8" s="17">
         <f ca="1"/>
-        <v>992876.05084013892</v>
+        <v>986476.76456466597</v>
       </c>
       <c r="P8" s="17">
         <f ca="1"/>
@@ -3382,27 +3390,27 @@
       </c>
       <c r="Q8" s="17">
         <f ca="1"/>
-        <v>27.841680183069315</v>
+        <v>26.694872400310437</v>
       </c>
       <c r="R8" s="17">
         <f ca="1"/>
-        <v>27.859204512559963</v>
+        <v>26.721096681294295</v>
       </c>
       <c r="S8" s="17">
         <f ca="1"/>
-        <v>24.665566181602653</v>
+        <v>24.359071065283278</v>
       </c>
       <c r="T8" s="17">
         <f ca="1"/>
-        <v>3.1936383309573095</v>
+        <v>2.3620256160110134</v>
       </c>
       <c r="U8" s="17">
         <f ca="1"/>
-        <v>1985752.1016802778</v>
+        <v>1972953.5291293319</v>
       </c>
       <c r="V8" s="17">
         <f ca="1"/>
-        <v>992876.05084013892</v>
+        <v>986476.76456466608</v>
       </c>
       <c r="W8" s="17">
         <f ca="1"/>
@@ -3435,11 +3443,11 @@
       </c>
       <c r="F9" s="13">
         <f ca="1">F7</f>
-        <v>43216</v>
+        <v>43642</v>
       </c>
       <c r="G9" s="13">
         <f ca="1">G7+5</f>
-        <v>43321</v>
+        <v>43747</v>
       </c>
       <c r="H9" s="12" t="str">
         <f>H7</f>
@@ -3466,7 +3474,7 @@
       </c>
       <c r="N9" s="22" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.ValueTrade(M9,D9,Metrics,H9,F9,$AA$3:$AB$3)</f>
-        <v>ValuationReport.LOCAL_USER.SpreadSheet.bulletPayment.t0004.LOCAL_USER.2018-04-26</v>
+        <v>ValuationReport.LOCAL_USER.SpreadSheet.bulletPayment.t0004.LOCAL_USER.2019-06-26</v>
       </c>
       <c r="O9" s="22" t="str">
         <f t="array" aca="1" ref="O9:W10" ca="1">TRANSPOSE(_xll.HLV5r3.Financial.Cache.ViewValuationReport(N9))</f>
@@ -3494,15 +3502,15 @@
       </c>
       <c r="U9" s="22" t="str">
         <f ca="1"/>
-        <v>RiskNPV.AUD</v>
+        <v>BucketedDeltaVector.AUD.2</v>
       </c>
       <c r="V9" s="22" t="str">
         <f ca="1"/>
-        <v>LocalCurrencyNPV.AUD</v>
+        <v>BucketedDeltaVector.AUD.3</v>
       </c>
       <c r="W9" s="22" t="str">
         <f ca="1"/>
-        <v>LocalCurrencyExpectedValue.AUD</v>
+        <v>BucketedDeltaVector.AUD.4</v>
       </c>
       <c r="X9" s="1" t="e">
         <f ca="1"/>
@@ -3529,39 +3537,39 @@
       <c r="N10" s="15"/>
       <c r="O10" s="17">
         <f ca="1"/>
-        <v>992738.181636811</v>
+        <v>0</v>
       </c>
       <c r="P10" s="17">
         <f ca="1"/>
-        <v>1000000</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="17">
         <f ca="1"/>
-        <v>28.378353135417083</v>
+        <v>-108.01749018824208</v>
       </c>
       <c r="R10" s="17">
         <f ca="1"/>
-        <v>28.398338994597733</v>
+        <v>-142.15778358809655</v>
       </c>
       <c r="S10" s="17">
         <f ca="1"/>
-        <v>24.662140224826782</v>
+        <v>26.006849550599227</v>
       </c>
       <c r="T10" s="17">
         <f ca="1"/>
-        <v>3.7361987697709522</v>
+        <v>26.006849550599227</v>
       </c>
       <c r="U10" s="17">
         <f ca="1"/>
-        <v>1985476.363273622</v>
+        <v>26.006849550599227</v>
       </c>
       <c r="V10" s="17">
         <f ca="1"/>
-        <v>992738.181636811</v>
+        <v>26.006849550599227</v>
       </c>
       <c r="W10" s="17">
         <f ca="1"/>
-        <v>1000000</v>
+        <v>26.006849550599227</v>
       </c>
       <c r="X10" s="1" t="e">
         <f ca="1"/>
@@ -3590,11 +3598,11 @@
       </c>
       <c r="F11" s="13">
         <f ca="1">F9</f>
-        <v>43216</v>
+        <v>43642</v>
       </c>
       <c r="G11" s="13">
         <f ca="1">G9+5</f>
-        <v>43326</v>
+        <v>43752</v>
       </c>
       <c r="H11" s="12" t="str">
         <f>H9</f>
@@ -3621,7 +3629,7 @@
       </c>
       <c r="N11" s="22" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.ValueTrade(M11,D11,Metrics,H11,F11,$AA$3:$AB$3)</f>
-        <v>ValuationReport.LOCAL_USER.SpreadSheet.bulletPayment.t0005.LOCAL_USER.2018-04-26</v>
+        <v>ValuationReport.LOCAL_USER.SpreadSheet.bulletPayment.t0005.LOCAL_USER.2019-06-26</v>
       </c>
       <c r="O11" s="22" t="str">
         <f t="array" aca="1" ref="O11:W12" ca="1">TRANSPOSE(_xll.HLV5r3.Financial.Cache.ViewValuationReport(N11))</f>
@@ -3649,15 +3657,15 @@
       </c>
       <c r="U11" s="22" t="str">
         <f ca="1"/>
-        <v>RiskNPV.AUD</v>
+        <v>BucketedDeltaVector.AUD.2</v>
       </c>
       <c r="V11" s="22" t="str">
         <f ca="1"/>
-        <v>LocalCurrencyNPV.AUD</v>
+        <v>BucketedDeltaVector.AUD.3</v>
       </c>
       <c r="W11" s="22" t="str">
         <f ca="1"/>
-        <v>LocalCurrencyExpectedValue.AUD</v>
+        <v>BucketedDeltaVector.AUD.4</v>
       </c>
       <c r="X11" s="1" t="e">
         <f ca="1"/>
@@ -3684,39 +3692,39 @@
       <c r="N12" s="15"/>
       <c r="O12" s="17">
         <f ca="1"/>
-        <v>992393.58512161497</v>
+        <v>0</v>
       </c>
       <c r="P12" s="17">
         <f ca="1"/>
-        <v>1000000</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="17">
         <f ca="1"/>
-        <v>29.719380775603526</v>
+        <v>-107.41804543019374</v>
       </c>
       <c r="R12" s="17">
         <f ca="1"/>
-        <v>29.744858624055379</v>
+        <v>-141.38324509187169</v>
       </c>
       <c r="S12" s="17">
         <f ca="1"/>
-        <v>24.653577234307438</v>
+        <v>25.999725850146294</v>
       </c>
       <c r="T12" s="17">
         <f ca="1"/>
-        <v>5.091281389747941</v>
+        <v>25.999725850146294</v>
       </c>
       <c r="U12" s="17">
         <f ca="1"/>
-        <v>1984787.1702432299</v>
+        <v>25.999725850146294</v>
       </c>
       <c r="V12" s="17">
         <f ca="1"/>
-        <v>992393.58512161497</v>
+        <v>25.999725850146294</v>
       </c>
       <c r="W12" s="17">
         <f ca="1"/>
-        <v>1000000</v>
+        <v>25.999725850146294</v>
       </c>
       <c r="X12" s="1" t="e">
         <f ca="1"/>
@@ -3745,11 +3753,11 @@
       </c>
       <c r="F13" s="13">
         <f ca="1">F11</f>
-        <v>43216</v>
+        <v>43642</v>
       </c>
       <c r="G13" s="13">
         <f ca="1">G11+5</f>
-        <v>43331</v>
+        <v>43757</v>
       </c>
       <c r="H13" s="12" t="str">
         <f>H11</f>
@@ -3776,7 +3784,7 @@
       </c>
       <c r="N13" s="22" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.ValueTrade(M13,D13,Metrics,H13,F13,$AA$3:$AB$3)</f>
-        <v>ValuationReport.LOCAL_USER.SpreadSheet.bulletPayment.t0006.LOCAL_USER.2018-04-26</v>
+        <v>ValuationReport.LOCAL_USER.SpreadSheet.bulletPayment.t0006.LOCAL_USER.2019-06-26</v>
       </c>
       <c r="O13" s="22" t="str">
         <f t="array" aca="1" ref="O13:W14" ca="1">TRANSPOSE(_xll.HLV5r3.Financial.Cache.ViewValuationReport(N13))</f>
@@ -3804,15 +3812,15 @@
       </c>
       <c r="U13" s="22" t="str">
         <f ca="1"/>
-        <v>RiskNPV.AUD</v>
+        <v>BucketedDeltaVector.AUD.2</v>
       </c>
       <c r="V13" s="22" t="str">
         <f ca="1"/>
-        <v>LocalCurrencyNPV.AUD</v>
+        <v>BucketedDeltaVector.AUD.3</v>
       </c>
       <c r="W13" s="22" t="str">
         <f ca="1"/>
-        <v>LocalCurrencyExpectedValue.AUD</v>
+        <v>BucketedDeltaVector.AUD.4</v>
       </c>
       <c r="X13" s="1" t="e">
         <f ca="1"/>
@@ -3839,39 +3847,39 @@
       <c r="N14" s="15"/>
       <c r="O14" s="17">
         <f ca="1"/>
-        <v>991980.21351239795</v>
+        <v>0</v>
       </c>
       <c r="P14" s="17">
         <f ca="1"/>
-        <v>1000000</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="17">
         <f ca="1"/>
-        <v>31.327379799671927</v>
+        <v>-105.92083452203215</v>
       </c>
       <c r="R14" s="17">
         <f ca="1"/>
-        <v>31.358202198489259</v>
+        <v>-139.45069733191559</v>
       </c>
       <c r="S14" s="17">
         <f ca="1"/>
-        <v>24.643305230345391</v>
+        <v>25.981925134772695</v>
       </c>
       <c r="T14" s="17">
         <f ca="1"/>
-        <v>6.7148969681438686</v>
+        <v>25.981925134772695</v>
       </c>
       <c r="U14" s="17">
         <f ca="1"/>
-        <v>1983960.4270247959</v>
+        <v>25.981925134772695</v>
       </c>
       <c r="V14" s="17">
         <f ca="1"/>
-        <v>991980.21351239807</v>
+        <v>25.981925134772695</v>
       </c>
       <c r="W14" s="17">
         <f ca="1"/>
-        <v>1000000</v>
+        <v>25.981925134772695</v>
       </c>
       <c r="X14" s="1" t="e">
         <f ca="1"/>
@@ -3900,11 +3908,11 @@
       </c>
       <c r="F15" s="13">
         <f ca="1">F13</f>
-        <v>43216</v>
+        <v>43642</v>
       </c>
       <c r="G15" s="13">
         <f ca="1">G13+5</f>
-        <v>43336</v>
+        <v>43762</v>
       </c>
       <c r="H15" s="12" t="str">
         <f>H13</f>
@@ -3931,7 +3939,7 @@
       </c>
       <c r="N15" s="22" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.ValueTrade(M15,D15,Metrics,H15,F15,$AA$3:$AB$3)</f>
-        <v>ValuationReport.LOCAL_USER.SpreadSheet.bulletPayment.t0007.LOCAL_USER.2018-04-26</v>
+        <v>ValuationReport.LOCAL_USER.SpreadSheet.bulletPayment.t0007.LOCAL_USER.2019-06-26</v>
       </c>
       <c r="O15" s="22" t="str">
         <f t="array" aca="1" ref="O15:W16" ca="1">TRANSPOSE(_xll.HLV5r3.Financial.Cache.ViewValuationReport(N15))</f>
@@ -3959,15 +3967,15 @@
       </c>
       <c r="U15" s="22" t="str">
         <f ca="1"/>
-        <v>RiskNPV.AUD</v>
+        <v>BucketedDeltaVector.AUD.2</v>
       </c>
       <c r="V15" s="22" t="str">
         <f ca="1"/>
-        <v>LocalCurrencyNPV.AUD</v>
+        <v>BucketedDeltaVector.AUD.3</v>
       </c>
       <c r="W15" s="22" t="str">
         <f ca="1"/>
-        <v>LocalCurrencyExpectedValue.AUD</v>
+        <v>BucketedDeltaVector.AUD.4</v>
       </c>
       <c r="X15" s="1" t="e">
         <f ca="1"/>
@@ -3983,7 +3991,7 @@
       </c>
       <c r="AB15" s="14">
         <f ca="1"/>
-        <v>993771.92605997203</v>
+        <v>987818.12838638504</v>
       </c>
     </row>
     <row r="16" spans="2:28">
@@ -4002,39 +4010,39 @@
       <c r="N16" s="15"/>
       <c r="O16" s="17">
         <f ca="1"/>
-        <v>991704.71981440904</v>
+        <v>0</v>
       </c>
       <c r="P16" s="17">
         <f ca="1"/>
-        <v>1000000</v>
+        <v>0</v>
       </c>
       <c r="Q16" s="17">
         <f ca="1"/>
-        <v>32.39863153921916</v>
+        <v>-104.12682096192738</v>
       </c>
       <c r="R16" s="17">
         <f ca="1"/>
-        <v>32.432263451753805</v>
+        <v>-137.13878565540318</v>
       </c>
       <c r="S16" s="17">
         <f ca="1"/>
-        <v>24.636459399614587</v>
+        <v>25.960580362775538</v>
       </c>
       <c r="T16" s="17">
         <f ca="1"/>
-        <v>7.7958040521392178</v>
+        <v>25.960580362775538</v>
       </c>
       <c r="U16" s="17">
         <f ca="1"/>
-        <v>1983409.4396288181</v>
+        <v>25.960580362775538</v>
       </c>
       <c r="V16" s="17">
         <f ca="1"/>
-        <v>991704.71981440904</v>
+        <v>25.960580362775538</v>
       </c>
       <c r="W16" s="17">
         <f ca="1"/>
-        <v>1000000</v>
+        <v>25.960580362775538</v>
       </c>
       <c r="X16" s="1" t="e">
         <f ca="1"/>
@@ -4071,11 +4079,11 @@
       </c>
       <c r="F17" s="13">
         <f ca="1">F15</f>
-        <v>43216</v>
+        <v>43642</v>
       </c>
       <c r="G17" s="13">
         <f ca="1">G15+5</f>
-        <v>43341</v>
+        <v>43767</v>
       </c>
       <c r="H17" s="12" t="str">
         <f>H15</f>
@@ -4102,7 +4110,7 @@
       </c>
       <c r="N17" s="22" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.ValueTrade(M17,D17,Metrics,H17,F17,$AA$3:$AB$3)</f>
-        <v>ValuationReport.LOCAL_USER.SpreadSheet.bulletPayment.t0008.LOCAL_USER.2018-04-26</v>
+        <v>ValuationReport.LOCAL_USER.SpreadSheet.bulletPayment.t0008.LOCAL_USER.2019-06-26</v>
       </c>
       <c r="O17" s="22" t="str">
         <f t="array" aca="1" ref="O17:W18" ca="1">TRANSPOSE(_xll.HLV5r3.Financial.Cache.ViewValuationReport(N17))</f>
@@ -4130,15 +4138,15 @@
       </c>
       <c r="U17" s="22" t="str">
         <f ca="1"/>
-        <v>RiskNPV.AUD</v>
+        <v>BucketedDeltaVector.AUD.2</v>
       </c>
       <c r="V17" s="22" t="str">
         <f ca="1"/>
-        <v>LocalCurrencyNPV.AUD</v>
+        <v>BucketedDeltaVector.AUD.3</v>
       </c>
       <c r="W17" s="22" t="str">
         <f ca="1"/>
-        <v>LocalCurrencyExpectedValue.AUD</v>
+        <v>BucketedDeltaVector.AUD.4</v>
       </c>
       <c r="X17" s="1" t="e">
         <f ca="1"/>
@@ -4154,7 +4162,7 @@
       </c>
       <c r="AB17" s="1">
         <f ca="1"/>
-        <v>24.349621344103902</v>
+        <v>24.057988095832854</v>
       </c>
     </row>
     <row r="18" spans="2:28">
@@ -4173,39 +4181,39 @@
       <c r="N18" s="15"/>
       <c r="O18" s="17">
         <f ca="1"/>
-        <v>991360.45096095302</v>
+        <v>0</v>
       </c>
       <c r="P18" s="17">
         <f ca="1"/>
-        <v>1000000</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="17">
         <f ca="1"/>
-        <v>33.736855553305581</v>
+        <v>-102.93241000770504</v>
       </c>
       <c r="R18" s="17">
         <f ca="1"/>
-        <v>33.773153369615876</v>
+        <v>-128.68361691779424</v>
       </c>
       <c r="S18" s="17">
         <f ca="1"/>
-        <v>24.627904553913037</v>
+        <v>25.946360257467099</v>
       </c>
       <c r="T18" s="17">
         <f ca="1"/>
-        <v>9.1452488157028391</v>
+        <v>25.946360257467099</v>
       </c>
       <c r="U18" s="17">
         <f ca="1"/>
-        <v>1982720.901921906</v>
+        <v>25.946360257467099</v>
       </c>
       <c r="V18" s="17">
         <f ca="1"/>
-        <v>991360.45096095302</v>
+        <v>25.946360257467099</v>
       </c>
       <c r="W18" s="17">
         <f ca="1"/>
-        <v>1000000</v>
+        <v>-232.46905794766263</v>
       </c>
       <c r="X18" s="1" t="e">
         <f ca="1"/>
@@ -4221,7 +4229,7 @@
       </c>
       <c r="AB18" s="1">
         <f ca="1"/>
-        <v>24.3517225087502</v>
+        <v>24.062036675786672</v>
       </c>
     </row>
     <row r="19" spans="2:28">
@@ -4242,11 +4250,11 @@
       </c>
       <c r="F19" s="13">
         <f ca="1">F17</f>
-        <v>43216</v>
+        <v>43642</v>
       </c>
       <c r="G19" s="13">
         <f ca="1">G17+5</f>
-        <v>43346</v>
+        <v>43772</v>
       </c>
       <c r="H19" s="12" t="str">
         <f>H17</f>
@@ -4273,7 +4281,7 @@
       </c>
       <c r="N19" s="22" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.ValueTrade(M19,D19,Metrics,H19,F19,$AA$3:$AB$3)</f>
-        <v>ValuationReport.LOCAL_USER.SpreadSheet.bulletPayment.t0009.LOCAL_USER.2018-04-26</v>
+        <v>ValuationReport.LOCAL_USER.SpreadSheet.bulletPayment.t0009.LOCAL_USER.2019-06-26</v>
       </c>
       <c r="O19" s="22" t="str">
         <f t="array" aca="1" ref="O19:W20" ca="1">TRANSPOSE(_xll.HLV5r3.Financial.Cache.ViewValuationReport(N19))</f>
@@ -4301,15 +4309,15 @@
       </c>
       <c r="U19" s="22" t="str">
         <f ca="1"/>
-        <v>RiskNPV.AUD</v>
+        <v>BucketedDeltaVector.AUD.2</v>
       </c>
       <c r="V19" s="22" t="str">
         <f ca="1"/>
-        <v>LocalCurrencyNPV.AUD</v>
+        <v>BucketedDeltaVector.AUD.3</v>
       </c>
       <c r="W19" s="22" t="str">
         <f ca="1"/>
-        <v>LocalCurrencyExpectedValue.AUD</v>
+        <v>BucketedDeltaVector.AUD.4</v>
       </c>
     </row>
     <row r="20" spans="2:28">
@@ -4328,39 +4336,39 @@
       <c r="N20" s="15"/>
       <c r="O20" s="17">
         <f ca="1"/>
-        <v>991016.29126664391</v>
+        <v>0</v>
       </c>
       <c r="P20" s="17">
         <f ca="1"/>
-        <v>1000000</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="17">
         <f ca="1"/>
-        <v>35.07414591573697</v>
+        <v>-101.44119233041573</v>
       </c>
       <c r="R20" s="17">
         <f ca="1"/>
-        <v>35.112171431032053</v>
+        <v>-126.8222974981914</v>
       </c>
       <c r="S20" s="17">
         <f ca="1"/>
-        <v>24.619352421623056</v>
+        <v>25.92859607885276</v>
       </c>
       <c r="T20" s="17">
         <f ca="1"/>
-        <v>10.492819009408997</v>
+        <v>25.92859607885276</v>
       </c>
       <c r="U20" s="17">
         <f ca="1"/>
-        <v>1982032.5825332878</v>
+        <v>25.92859607885276</v>
       </c>
       <c r="V20" s="17">
         <f ca="1"/>
-        <v>991016.29126664402</v>
+        <v>25.92859607885276</v>
       </c>
       <c r="W20" s="17">
         <f ca="1"/>
-        <v>1000000</v>
+        <v>-230.53668181360243</v>
       </c>
       <c r="AA20" s="1" t="s">
         <v>36</v>
@@ -4387,11 +4395,11 @@
       </c>
       <c r="F21" s="13">
         <f ca="1">F19</f>
-        <v>43216</v>
+        <v>43642</v>
       </c>
       <c r="G21" s="13">
         <f ca="1">G19+5</f>
-        <v>43351</v>
+        <v>43777</v>
       </c>
       <c r="H21" s="12" t="str">
         <f>H19</f>
@@ -4418,7 +4426,7 @@
       </c>
       <c r="N21" s="22" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.ValueTrade(M21,D21,Metrics,H21,F21,$AA$3:$AB$3)</f>
-        <v>ValuationReport.LOCAL_USER.SpreadSheet.bulletPayment.t0010.LOCAL_USER.2018-04-26</v>
+        <v>ValuationReport.LOCAL_USER.SpreadSheet.bulletPayment.t0010.LOCAL_USER.2019-06-26</v>
       </c>
       <c r="O21" s="22" t="str">
         <f t="array" aca="1" ref="O21:W22" ca="1">TRANSPOSE(_xll.HLV5r3.Financial.Cache.ViewValuationReport(N21))</f>
@@ -4446,15 +4454,15 @@
       </c>
       <c r="U21" s="22" t="str">
         <f ca="1"/>
-        <v>RiskNPV.AUD</v>
+        <v>BucketedDeltaVector.AUD.2</v>
       </c>
       <c r="V21" s="22" t="str">
         <f ca="1"/>
-        <v>LocalCurrencyNPV.AUD</v>
+        <v>BucketedDeltaVector.AUD.3</v>
       </c>
       <c r="W21" s="22" t="str">
         <f ca="1"/>
-        <v>LocalCurrencyExpectedValue.AUD</v>
+        <v>BucketedDeltaVector.AUD.4</v>
       </c>
     </row>
     <row r="22" spans="2:28">
@@ -4473,43 +4481,43 @@
       <c r="N22" s="15"/>
       <c r="O22" s="17">
         <f ca="1"/>
-        <v>990534.65102351888</v>
+        <v>0</v>
       </c>
       <c r="P22" s="17">
         <f ca="1"/>
-        <v>1000000</v>
+        <v>0</v>
       </c>
       <c r="Q22" s="17">
         <f ca="1"/>
-        <v>36.944784735438752</v>
+        <v>-99.951968328710791</v>
       </c>
       <c r="R22" s="17">
         <f ca="1"/>
-        <v>36.98365647484291</v>
+        <v>-124.96616008895852</v>
       </c>
       <c r="S22" s="17">
         <f ca="1"/>
-        <v>24.607383993494768</v>
+        <v>25.910844062485392</v>
       </c>
       <c r="T22" s="17">
         <f ca="1"/>
-        <v>12.376272481348144</v>
+        <v>25.910844062485392</v>
       </c>
       <c r="U22" s="17">
         <f ca="1"/>
-        <v>1981069.3020470378</v>
+        <v>25.910844062485392</v>
       </c>
       <c r="V22" s="17">
         <f ca="1"/>
-        <v>990534.65102351899</v>
+        <v>25.910844062485392</v>
       </c>
       <c r="W22" s="17">
         <f ca="1"/>
-        <v>1000000</v>
+        <v>-228.60953633890006</v>
       </c>
       <c r="AB22" s="14">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetNPVWithSpecifiedCurves(L3,C3,H3,F3,AA3:AB3)</f>
-        <v>-993771.92605997203</v>
+        <v>-987818.12838638504</v>
       </c>
     </row>
     <row r="23" spans="2:28">
@@ -4530,11 +4538,11 @@
       </c>
       <c r="F23" s="13">
         <f ca="1">F21</f>
-        <v>43216</v>
+        <v>43642</v>
       </c>
       <c r="G23" s="13">
         <f ca="1">G21+5</f>
-        <v>43356</v>
+        <v>43782</v>
       </c>
       <c r="H23" s="13" t="str">
         <f>H21</f>
@@ -4561,7 +4569,7 @@
       </c>
       <c r="N23" s="22" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.ValueTrade(M23,D23,Metrics,H23,F23,$AA$3:$AB$3)</f>
-        <v>ValuationReport.LOCAL_USER.SpreadSheet.bulletPayment.t0011.LOCAL_USER.2018-04-26</v>
+        <v>ValuationReport.LOCAL_USER.SpreadSheet.bulletPayment.t0011.LOCAL_USER.2019-06-26</v>
       </c>
       <c r="O23" s="22" t="str">
         <f t="array" aca="1" ref="O23:W24" ca="1">TRANSPOSE(_xll.HLV5r3.Financial.Cache.ViewValuationReport(N23))</f>
@@ -4589,15 +4597,15 @@
       </c>
       <c r="U23" s="22" t="str">
         <f ca="1"/>
-        <v>RiskNPV.AUD</v>
+        <v>BucketedDeltaVector.AUD.2</v>
       </c>
       <c r="V23" s="22" t="str">
         <f ca="1"/>
-        <v>LocalCurrencyNPV.AUD</v>
+        <v>BucketedDeltaVector.AUD.3</v>
       </c>
       <c r="W23" s="22" t="str">
         <f ca="1"/>
-        <v>LocalCurrencyExpectedValue.AUD</v>
+        <v>BucketedDeltaVector.AUD.4</v>
       </c>
       <c r="AB23" s="23">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetParRateWithSpecifiedCurves(L3,C3,F3,AA3:AB3)</f>
@@ -4620,39 +4628,39 @@
       <c r="N24" s="15"/>
       <c r="O24" s="17">
         <f ca="1"/>
-        <v>990328.29923265707</v>
+        <v>0</v>
       </c>
       <c r="P24" s="17">
         <f ca="1"/>
-        <v>1000000</v>
+        <v>0</v>
       </c>
       <c r="Q24" s="17">
         <f ca="1"/>
-        <v>37.745927465110427</v>
+        <v>-97.870400234750747</v>
       </c>
       <c r="R24" s="17">
         <f ca="1"/>
-        <v>37.784601387284397</v>
+        <v>-122.37624646443211</v>
       </c>
       <c r="S24" s="17">
         <f ca="1"/>
-        <v>24.602256294223793</v>
+        <v>25.886011656292769</v>
       </c>
       <c r="T24" s="17">
         <f ca="1"/>
-        <v>13.182345093060604</v>
+        <v>25.886011656292769</v>
       </c>
       <c r="U24" s="17">
         <f ca="1"/>
-        <v>1980656.5984653141</v>
+        <v>25.886011656292769</v>
       </c>
       <c r="V24" s="17">
         <f ca="1"/>
-        <v>990328.29923265707</v>
+        <v>25.886011656292769</v>
       </c>
       <c r="W24" s="17">
         <f ca="1"/>
-        <v>1000000</v>
+        <v>-225.92029308960318</v>
       </c>
     </row>
     <row r="25" spans="2:28">
@@ -4673,11 +4681,11 @@
       </c>
       <c r="F25" s="13">
         <f ca="1">F23</f>
-        <v>43216</v>
+        <v>43642</v>
       </c>
       <c r="G25" s="13">
         <f ca="1">G23+5</f>
-        <v>43361</v>
+        <v>43787</v>
       </c>
       <c r="H25" s="13" t="str">
         <f>H23</f>
@@ -4704,7 +4712,7 @@
       </c>
       <c r="N25" s="22" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.ValueTrade(M25,D25,Metrics,H25,F25,$AA$3:$AB$3)</f>
-        <v>ValuationReport.LOCAL_USER.SpreadSheet.bulletPayment.t0012.LOCAL_USER.2018-04-26</v>
+        <v>ValuationReport.LOCAL_USER.SpreadSheet.bulletPayment.t0012.LOCAL_USER.2019-06-26</v>
       </c>
       <c r="O25" s="22" t="str">
         <f t="array" aca="1" ref="O25:W26" ca="1">TRANSPOSE(_xll.HLV5r3.Financial.Cache.ViewValuationReport(N25))</f>
@@ -4732,15 +4740,15 @@
       </c>
       <c r="U25" s="22" t="str">
         <f ca="1"/>
-        <v>RiskNPV.AUD</v>
+        <v>BucketedDeltaVector.AUD.2</v>
       </c>
       <c r="V25" s="22" t="str">
         <f ca="1"/>
-        <v>LocalCurrencyNPV.AUD</v>
+        <v>BucketedDeltaVector.AUD.3</v>
       </c>
       <c r="W25" s="22" t="str">
         <f ca="1"/>
-        <v>LocalCurrencyExpectedValue.AUD</v>
+        <v>BucketedDeltaVector.AUD.4</v>
       </c>
     </row>
     <row r="26" spans="2:28">
@@ -4759,39 +4767,39 @@
       <c r="N26" s="15"/>
       <c r="O26" s="17">
         <f ca="1"/>
-        <v>989984.46683159308</v>
+        <v>0</v>
       </c>
       <c r="P26" s="17">
         <f ca="1"/>
-        <v>1000000</v>
+        <v>0</v>
       </c>
       <c r="Q26" s="17">
         <f ca="1"/>
-        <v>39.080419541372741</v>
+        <v>-96.979493230146915</v>
       </c>
       <c r="R26" s="17">
         <f ca="1"/>
-        <v>39.11801797523561</v>
+        <v>-121.26937454509874</v>
       </c>
       <c r="S26" s="17">
         <f ca="1"/>
-        <v>24.593712297588006</v>
+        <v>25.875376483189783</v>
       </c>
       <c r="T26" s="17">
         <f ca="1"/>
-        <v>14.524305677647602</v>
+        <v>25.875376483189783</v>
       </c>
       <c r="U26" s="17">
         <f ca="1"/>
-        <v>1979968.9336631862</v>
+        <v>25.875376483189783</v>
       </c>
       <c r="V26" s="17">
         <f ca="1"/>
-        <v>989984.46683159308</v>
+        <v>25.875376483189783</v>
       </c>
       <c r="W26" s="17">
         <f ca="1"/>
-        <v>1000000</v>
+        <v>-224.77088047785784</v>
       </c>
     </row>
     <row r="27" spans="2:28">
@@ -4812,11 +4820,11 @@
       </c>
       <c r="F27" s="13">
         <f ca="1">F25</f>
-        <v>43216</v>
+        <v>43642</v>
       </c>
       <c r="G27" s="13">
         <f ca="1">G25+5</f>
-        <v>43366</v>
+        <v>43792</v>
       </c>
       <c r="H27" s="13" t="str">
         <f>H25</f>
@@ -4843,7 +4851,7 @@
       </c>
       <c r="N27" s="22" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.ValueTrade(M27,D27,Metrics,H27,F27,$AA$3:$AB$3)</f>
-        <v>ValuationReport.LOCAL_USER.SpreadSheet.bulletPayment.t0013.LOCAL_USER.2018-04-26</v>
+        <v>ValuationReport.LOCAL_USER.SpreadSheet.bulletPayment.t0013.LOCAL_USER.2019-06-26</v>
       </c>
       <c r="O27" s="22" t="str">
         <f t="array" aca="1" ref="O27:W28" ca="1">TRANSPOSE(_xll.HLV5r3.Financial.Cache.ViewValuationReport(N27))</f>
@@ -4871,15 +4879,15 @@
       </c>
       <c r="U27" s="22" t="str">
         <f ca="1"/>
-        <v>RiskNPV.AUD</v>
+        <v>BucketedDeltaVector.AUD.2</v>
       </c>
       <c r="V27" s="22" t="str">
         <f ca="1"/>
-        <v>LocalCurrencyNPV.AUD</v>
+        <v>BucketedDeltaVector.AUD.3</v>
       </c>
       <c r="W27" s="22" t="str">
         <f ca="1"/>
-        <v>LocalCurrencyExpectedValue.AUD</v>
+        <v>BucketedDeltaVector.AUD.4</v>
       </c>
     </row>
     <row r="28" spans="2:28">
@@ -4898,39 +4906,39 @@
       <c r="N28" s="15"/>
       <c r="O28" s="17">
         <f ca="1"/>
-        <v>989572.01187562686</v>
+        <v>0</v>
       </c>
       <c r="P28" s="17">
         <f ca="1"/>
-        <v>1000000</v>
+        <v>0</v>
       </c>
       <c r="Q28" s="17">
         <f ca="1"/>
-        <v>40.680579999604177</v>
+        <v>-95.496238076948899</v>
       </c>
       <c r="R28" s="17">
         <f ca="1"/>
-        <v>40.715659625936098</v>
+        <v>-119.42869814524734</v>
       </c>
       <c r="S28" s="17">
         <f ca="1"/>
-        <v>24.58346307923102</v>
+        <v>25.857660903624879</v>
       </c>
       <c r="T28" s="17">
         <f ca="1"/>
-        <v>16.132196546705075</v>
+        <v>25.857660903624879</v>
       </c>
       <c r="U28" s="17">
         <f ca="1"/>
-        <v>1979144.0237512537</v>
+        <v>25.857660903624879</v>
       </c>
       <c r="V28" s="17">
         <f ca="1"/>
-        <v>989572.0118756271</v>
+        <v>25.857660903624879</v>
       </c>
       <c r="W28" s="17">
         <f ca="1"/>
-        <v>1000000</v>
+        <v>-222.85934175974685</v>
       </c>
     </row>
     <row r="29" spans="2:28">
@@ -4951,11 +4959,11 @@
       </c>
       <c r="F29" s="13">
         <f ca="1">F27</f>
-        <v>43216</v>
+        <v>43642</v>
       </c>
       <c r="G29" s="13">
         <f ca="1">G27+5</f>
-        <v>43371</v>
+        <v>43797</v>
       </c>
       <c r="H29" s="13" t="str">
         <f>H27</f>
@@ -4982,7 +4990,7 @@
       </c>
       <c r="N29" s="22" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.ValueTrade(M29,D29,Metrics,H29,F29,$AA$3:$AB$3)</f>
-        <v>ValuationReport.LOCAL_USER.SpreadSheet.bulletPayment.t0014.LOCAL_USER.2018-04-26</v>
+        <v>ValuationReport.LOCAL_USER.SpreadSheet.bulletPayment.t0014.LOCAL_USER.2019-06-26</v>
       </c>
       <c r="O29" s="22" t="str">
         <f t="array" aca="1" ref="O29:W30" ca="1">TRANSPOSE(_xll.HLV5r3.Financial.Cache.ViewValuationReport(N29))</f>
@@ -5010,15 +5018,15 @@
       </c>
       <c r="U29" s="22" t="str">
         <f ca="1"/>
-        <v>RiskNPV.AUD</v>
+        <v>BucketedDeltaVector.AUD.2</v>
       </c>
       <c r="V29" s="22" t="str">
         <f ca="1"/>
-        <v>LocalCurrencyNPV.AUD</v>
+        <v>BucketedDeltaVector.AUD.3</v>
       </c>
       <c r="W29" s="22" t="str">
         <f ca="1"/>
-        <v>LocalCurrencyExpectedValue.AUD</v>
+        <v>BucketedDeltaVector.AUD.4</v>
       </c>
     </row>
     <row r="30" spans="2:28">
@@ -5037,39 +5045,39 @@
       <c r="N30" s="15"/>
       <c r="O30" s="17">
         <f ca="1"/>
-        <v>989297.12910790613</v>
+        <v>0</v>
       </c>
       <c r="P30" s="17">
         <f ca="1"/>
-        <v>1000000</v>
+        <v>0</v>
       </c>
       <c r="Q30" s="17">
         <f ca="1"/>
-        <v>41.746608519095616</v>
+        <v>-93.718952658037608</v>
       </c>
       <c r="R30" s="17">
         <f ca="1"/>
-        <v>41.779266078841161</v>
+        <v>-117.22665086388939</v>
       </c>
       <c r="S30" s="17">
         <f ca="1"/>
-        <v>24.576632434628891</v>
+        <v>25.836418217661429</v>
       </c>
       <c r="T30" s="17">
         <f ca="1"/>
-        <v>17.202633644212263</v>
+        <v>25.836418217661429</v>
       </c>
       <c r="U30" s="17">
         <f ca="1"/>
-        <v>1978594.2582158123</v>
+        <v>25.836418217661429</v>
       </c>
       <c r="V30" s="17">
         <f ca="1"/>
-        <v>989297.12910790602</v>
+        <v>25.836418217661429</v>
       </c>
       <c r="W30" s="17">
         <f ca="1"/>
-        <v>1000000</v>
+        <v>-220.5723237345351</v>
       </c>
     </row>
     <row r="31" spans="2:28">
@@ -5118,7 +5126,7 @@
       </c>
       <c r="L32" s="14">
         <f ca="1"/>
-        <v>-24.349621344103902</v>
+        <v>-24.057988095832854</v>
       </c>
       <c r="M32" s="12"/>
       <c r="N32" s="12"/>
@@ -5148,7 +5156,7 @@
       </c>
       <c r="L33" s="14">
         <f ca="1"/>
-        <v>-993771.92605997203</v>
+        <v>-987818.12838638504</v>
       </c>
       <c r="M33" s="12"/>
       <c r="N33" s="12"/>
@@ -5178,7 +5186,7 @@
       </c>
       <c r="L34" s="14">
         <f ca="1"/>
-        <v>-24.691518627699999</v>
+        <v>-24.069543758199998</v>
       </c>
       <c r="M34" s="12"/>
       <c r="N34" s="12"/>
@@ -5208,11 +5216,11 @@
       <c r="J35" s="13"/>
       <c r="K35" s="13" t="str">
         <f ca="1"/>
-        <v>LocalCurrencyDelta1PDH.USD-Deposit-1D</v>
+        <v>LocalCurrencyDelta1PDH.AUD-XccyDepo-1D</v>
       </c>
       <c r="L35" s="14">
         <f ca="1"/>
-        <v>-0.54369656970000002</v>
+        <v>-0.2778459895</v>
       </c>
       <c r="M35" s="12"/>
       <c r="N35" s="12"/>
@@ -5242,11 +5250,11 @@
       <c r="J36" s="13"/>
       <c r="K36" s="13" t="str">
         <f ca="1"/>
-        <v>LocalCurrencyDelta1PDH.USD-Deposit-1M</v>
+        <v>LocalCurrencyDelta1PDH.AUD-XccyDepo-TN</v>
       </c>
       <c r="L36" s="14">
         <f ca="1"/>
-        <v>-1.59559947E-2</v>
+        <v>-0.2778459895</v>
       </c>
       <c r="M36" s="12"/>
       <c r="N36" s="12"/>
@@ -5276,11 +5284,11 @@
       <c r="J37" s="13"/>
       <c r="K37" s="13" t="str">
         <f ca="1"/>
-        <v>LocalCurrencyDelta1PDH.USD-Deposit-2M</v>
+        <v>LocalCurrencyDelta1PDH.AUD-XccyDepo-1W</v>
       </c>
       <c r="L37" s="14">
         <f ca="1"/>
-        <v>-2.3954330617999999</v>
+        <v>0</v>
       </c>
       <c r="M37" s="12"/>
       <c r="N37" s="12"/>
@@ -5310,11 +5318,11 @@
       <c r="J38" s="13"/>
       <c r="K38" s="13" t="str">
         <f ca="1"/>
-        <v>LocalCurrencyDelta1PDH.USD-Deposit-3M</v>
+        <v>LocalCurrencyDelta1PDH.AUD-XccyDepo-2W</v>
       </c>
       <c r="L38" s="14">
         <f ca="1"/>
-        <v>-21.7364330015</v>
+        <v>0</v>
       </c>
       <c r="M38" s="12"/>
       <c r="N38" s="12"/>
@@ -5344,7 +5352,7 @@
       <c r="J39" s="13"/>
       <c r="K39" s="13" t="str">
         <f ca="1"/>
-        <v>LocalCurrencyDelta1PDH.USD-IRFuture-ED-1</v>
+        <v>LocalCurrencyDelta1PDH.AUD-XccyDepo-1M</v>
       </c>
       <c r="L39" s="14">
         <f ca="1"/>
@@ -5369,7 +5377,7 @@
       </c>
       <c r="D40" s="13">
         <f ca="1">TODAY()</f>
-        <v>43216</v>
+        <v>43642</v>
       </c>
       <c r="E40" s="13"/>
       <c r="F40" s="13"/>
@@ -5379,11 +5387,11 @@
       <c r="J40" s="13"/>
       <c r="K40" s="13" t="str">
         <f ca="1"/>
-        <v>LocalCurrencyDelta1PDH.USD-IRFuture-ED-2</v>
+        <v>LocalCurrencyDelta1PDH.AUD-XccyDepo-2M</v>
       </c>
       <c r="L40" s="14">
         <f ca="1"/>
-        <v>0</v>
+        <v>-4.2525211004000001</v>
       </c>
       <c r="M40" s="12"/>
       <c r="N40" s="12"/>
@@ -5404,7 +5412,7 @@
       </c>
       <c r="D41" s="13">
         <f ca="1">D40+90</f>
-        <v>43306</v>
+        <v>43732</v>
       </c>
       <c r="E41" s="13"/>
       <c r="F41" s="13"/>
@@ -5414,11 +5422,11 @@
       <c r="J41" s="13"/>
       <c r="K41" s="13" t="str">
         <f ca="1"/>
-        <v>LocalCurrencyDelta1PDH.USD-IRFuture-ED-3</v>
+        <v>LocalCurrencyDelta1PDH.AUD-XccyDepo-3M</v>
       </c>
       <c r="L41" s="14">
         <f ca="1"/>
-        <v>0</v>
+        <v>-19.2613306788</v>
       </c>
       <c r="M41" s="12"/>
       <c r="N41" s="12"/>
@@ -5448,7 +5456,7 @@
       <c r="J42" s="13"/>
       <c r="K42" s="13" t="str">
         <f ca="1"/>
-        <v>LocalCurrencyDelta1PDH.USD-IRFuture-ED-4</v>
+        <v>LocalCurrencyDelta1PDH.AUD-XccySwap-6M</v>
       </c>
       <c r="L42" s="14">
         <f ca="1"/>
@@ -5482,7 +5490,7 @@
       <c r="J43" s="13"/>
       <c r="K43" s="13" t="str">
         <f ca="1"/>
-        <v>LocalCurrencyDelta1PDH.USD-IRFuture-ED-5</v>
+        <v>LocalCurrencyDelta1PDH.AUD-XccySwap-9M</v>
       </c>
       <c r="L43" s="14">
         <f ca="1"/>
@@ -5516,7 +5524,7 @@
       <c r="J44" s="13"/>
       <c r="K44" s="13" t="str">
         <f ca="1"/>
-        <v>LocalCurrencyDelta1PDH.USD-IRFuture-ED-6</v>
+        <v>LocalCurrencyDelta1PDH.AUD-XccySwap-1Y</v>
       </c>
       <c r="L44" s="14">
         <f ca="1"/>
@@ -5550,7 +5558,7 @@
       <c r="J45" s="13"/>
       <c r="K45" s="13" t="str">
         <f ca="1"/>
-        <v>LocalCurrencyDelta1PDH.USD-IRFuture-ED-7</v>
+        <v>LocalCurrencyDelta1PDH.AUD-XccySwap-2Y</v>
       </c>
       <c r="L45" s="14">
         <f ca="1"/>
@@ -5585,7 +5593,7 @@
       <c r="J46" s="13"/>
       <c r="K46" s="13" t="str">
         <f ca="1"/>
-        <v>LocalCurrencyDelta1PDH.USD-IRFuture-ED-8</v>
+        <v>LocalCurrencyDelta1PDH.AUD-XccySwap-3Y</v>
       </c>
       <c r="L46" s="14">
         <f ca="1"/>

--- a/FpML.V5r3.Applications/ExcelAPI/Spreadsheets/Product Pricers/BulletPaymentPricer.xlsx
+++ b/FpML.V5r3.Applications/ExcelAPI/Spreadsheets/Product Pricers/BulletPaymentPricer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\Visual Studio 2019\Projects\Highlander\FpML.V5r3.Applications\ExcelAPI\Spreadsheets\Product Pricers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83306CE4-0FF2-4F56-AF8A-E73B7CB3C82F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D47B6402-EA34-4BFD-9BFE-D84F75667F22}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2415" yWindow="0" windowWidth="26370" windowHeight="14820" tabRatio="530" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1410" yWindow="465" windowWidth="26370" windowHeight="14820" tabRatio="530" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GetInfo &amp; GetInstrumentInfo" sheetId="4" r:id="rId1"/>
@@ -1082,7 +1082,7 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1127,6 +1127,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="181" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1565,7 +1568,7 @@
   <dimension ref="A1:G129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -1589,7 +1592,7 @@
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="str">
         <f>_xll.HLV5r3.Financial.Cache.GetCurveEngineVersionInfo()</f>
-        <v>Version: FpML.V5r3 v1.0 Built on : 26/06/2019, 9:22 AM</v>
+        <v>Version: FpML.V5r3 v1.0 Built on : 18/08/2019, 12:57 PM</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1609,7 +1612,7 @@
       </c>
       <c r="D4" s="21">
         <f ca="1">TODAY()</f>
-        <v>43642</v>
+        <v>43696</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1694,11 +1697,11 @@
       </c>
       <c r="F15" s="1">
         <f t="array" aca="1" ref="F15:G57" ca="1">_xll.HLV5r3.Financial.Cache.GetDaysAndZeroRates(C9,D4,D3)</f>
+        <v>-1</v>
+      </c>
+      <c r="G15" s="20">
+        <f ca="1"/>
         <v>0</v>
-      </c>
-      <c r="G15" s="20">
-        <f ca="1"/>
-        <v>5.0310338746119676E-2</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1713,11 +1716,11 @@
       </c>
       <c r="F16" s="1">
         <f ca="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" s="20">
         <f ca="1"/>
-        <v>5.0310338746119676E-2</v>
+        <v>0.10125346003870561</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1732,11 +1735,11 @@
       </c>
       <c r="F17" s="1">
         <f ca="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G17" s="20">
         <f ca="1"/>
-        <v>5.0310338746257344E-2</v>
+        <v>0.10125346003870561</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1751,11 +1754,11 @@
       </c>
       <c r="F18" s="1">
         <f ca="1"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G18" s="20">
         <f ca="1"/>
-        <v>5.0294167846105076E-2</v>
+        <v>5.6625240644771146E-2</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1770,11 +1773,11 @@
       </c>
       <c r="F19" s="1">
         <f ca="1"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G19" s="20">
         <f ca="1"/>
-        <v>5.0270947449393866E-2</v>
+        <v>5.3644720360310316E-2</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1789,11 +1792,11 @@
       </c>
       <c r="F20" s="1">
         <f ca="1"/>
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G20" s="20">
         <f ca="1"/>
-        <v>5.0212897628407305E-2</v>
+        <v>5.1792166505302717E-2</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1812,7 +1815,7 @@
       </c>
       <c r="G21" s="20">
         <f ca="1"/>
-        <v>5.0110018591749572E-2</v>
+        <v>5.090697681129619E-2</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1827,11 +1830,11 @@
       </c>
       <c r="F22" s="1">
         <f ca="1"/>
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G22" s="20">
         <f ca="1"/>
-        <v>4.99972840044558E-2</v>
+        <v>5.0545160911269704E-2</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1846,11 +1849,11 @@
       </c>
       <c r="F23" s="1">
         <f ca="1"/>
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G23" s="20">
         <f ca="1"/>
-        <v>5.0209287034203243E-2</v>
+        <v>5.0483120353885802E-2</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1865,11 +1868,11 @@
       </c>
       <c r="F24" s="1">
         <f ca="1"/>
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G24" s="20">
         <f ca="1"/>
-        <v>5.020913340554678E-2</v>
+        <v>5.0393729239122997E-2</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1884,11 +1887,11 @@
       </c>
       <c r="F25" s="1">
         <f ca="1"/>
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="G25" s="20">
         <f ca="1"/>
-        <v>4.9996612004751029E-2</v>
+        <v>5.0134621682289549E-2</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1903,11 +1906,11 @@
       </c>
       <c r="F26" s="1">
         <f ca="1"/>
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="G26" s="20">
         <f ca="1"/>
-        <v>4.999871141768697E-2</v>
+        <v>5.0067355806184821E-2</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1922,11 +1925,11 @@
       </c>
       <c r="F27" s="1">
         <f ca="1"/>
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="G27" s="20">
         <f ca="1"/>
-        <v>4.9999113972221565E-2</v>
+        <v>5.0044182205371435E-2</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1945,7 +1948,7 @@
       </c>
       <c r="G28" s="20">
         <f ca="1"/>
-        <v>4.9999328207604776E-2</v>
+        <v>5.003339595868006E-2</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1960,11 +1963,11 @@
       </c>
       <c r="F29" s="1">
         <f ca="1"/>
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="G29" s="20">
         <f ca="1"/>
-        <v>4.9999290077511027E-2</v>
+        <v>5.0026723958660035E-2</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1979,11 +1982,11 @@
       </c>
       <c r="F30" s="1">
         <f ca="1"/>
-        <v>2196</v>
+        <v>2193</v>
       </c>
       <c r="G30" s="20">
         <f ca="1"/>
-        <v>4.9999082488906055E-2</v>
+        <v>5.0022263094804842E-2</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1998,11 +2001,11 @@
       </c>
       <c r="F31" s="1">
         <f ca="1"/>
-        <v>2560</v>
+        <v>2558</v>
       </c>
       <c r="G31" s="20">
         <f ca="1"/>
-        <v>4.9999334459748468E-2</v>
+        <v>5.0019075232802912E-2</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -2017,11 +2020,11 @@
       </c>
       <c r="F32" s="1">
         <f ca="1"/>
-        <v>2924</v>
+        <v>2923</v>
       </c>
       <c r="G32" s="20">
         <f ca="1"/>
-        <v>4.9999518704429313E-2</v>
+        <v>5.0016657592820479E-2</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -2040,7 +2043,7 @@
       </c>
       <c r="G33" s="20">
         <f ca="1"/>
-        <v>4.9999473072583456E-2</v>
+        <v>5.0014593423383324E-2</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -2055,11 +2058,11 @@
       </c>
       <c r="F34" s="1">
         <f ca="1"/>
-        <v>3655</v>
+        <v>3654</v>
       </c>
       <c r="G34" s="20">
         <f ca="1"/>
-        <v>4.9999522631222426E-2</v>
+        <v>5.0013221809798836E-2</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -2074,11 +2077,11 @@
       </c>
       <c r="F35" s="1">
         <f ca="1"/>
-        <v>4387</v>
+        <v>4384</v>
       </c>
       <c r="G35" s="20">
         <f ca="1"/>
-        <v>4.9999440291773389E-2</v>
+        <v>5.0011007278142117E-2</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -2097,7 +2100,7 @@
       </c>
       <c r="G36" s="20">
         <f ca="1"/>
-        <v>4.9999603023955785E-2</v>
+        <v>5.0008657295409265E-2</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -2112,11 +2115,11 @@
       </c>
       <c r="F37" s="1">
         <f ca="1"/>
-        <v>7307</v>
+        <v>7308</v>
       </c>
       <c r="G37" s="20">
         <f ca="1"/>
-        <v>4.9999642665456534E-2</v>
+        <v>5.0006382041646091E-2</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -2131,11 +2134,11 @@
       </c>
       <c r="F38" s="1">
         <f ca="1"/>
-        <v>9134</v>
+        <v>9135</v>
       </c>
       <c r="G38" s="20">
         <f ca="1"/>
-        <v>4.9999626539436903E-2</v>
+        <v>5.0005031110468501E-2</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -2150,11 +2153,11 @@
       </c>
       <c r="F39" s="1">
         <f ca="1"/>
-        <v>10960</v>
+        <v>10959</v>
       </c>
       <c r="G39" s="20">
         <f ca="1"/>
-        <v>4.9999652733631272E-2</v>
+        <v>5.0004213843573453E-2</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -2867,10 +2870,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B1:AB52"/>
+  <dimension ref="B1:AH52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+      <selection activeCell="AA36" sqref="AA36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -2890,7 +2893,7 @@
     <col min="14" max="14" width="69.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="20" width="20.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="16.85546875" style="1" customWidth="1"/>
@@ -2984,11 +2987,11 @@
       </c>
       <c r="F3" s="13">
         <f ca="1">TODAY()</f>
-        <v>43642</v>
+        <v>43696</v>
       </c>
       <c r="G3" s="13">
         <f ca="1">F3+90</f>
-        <v>43732</v>
+        <v>43786</v>
       </c>
       <c r="H3" s="12" t="s">
         <v>23</v>
@@ -3011,7 +3014,7 @@
       </c>
       <c r="N3" s="12" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.ValueTrade(M3,D3,Metrics,H3,F3,$AA$3:$AB$3)</f>
-        <v>ValuationReport.LOCAL_USER.SpreadSheet.bulletPayment.t0001.LOCAL_USER.2019-06-26</v>
+        <v>ValuationReport.LOCAL_USER.SpreadSheet.bulletPayment.t0001.LOCAL_USER.2019-08-19</v>
       </c>
       <c r="O3" s="12" t="str">
         <f t="array" aca="1" ref="O3:W4" ca="1">TRANSPOSE(_xll.HLV5r3.Financial.Cache.ViewValuationReport(N3))</f>
@@ -3077,7 +3080,7 @@
       <c r="N4" s="15"/>
       <c r="O4" s="17">
         <f ca="1"/>
-        <v>987818.12838638504</v>
+        <v>987684.44596481009</v>
       </c>
       <c r="P4" s="17">
         <f ca="1"/>
@@ -3085,23 +3088,23 @@
       </c>
       <c r="Q4" s="17">
         <f ca="1"/>
-        <v>24.057988095832854</v>
+        <v>24.322027480591917</v>
       </c>
       <c r="R4" s="17">
         <f ca="1"/>
-        <v>24.062036675786672</v>
+        <v>24.322845917989024</v>
       </c>
       <c r="S4" s="17">
         <f ca="1"/>
-        <v>24.062036675786672</v>
+        <v>24.322845917989024</v>
       </c>
       <c r="T4" s="17">
         <f ca="1"/>
-        <v>1975636.2567727701</v>
+        <v>1975368.8919296202</v>
       </c>
       <c r="U4" s="17">
         <f ca="1"/>
-        <v>987818.12838638504</v>
+        <v>987684.44596480997</v>
       </c>
       <c r="V4" s="17">
         <f ca="1"/>
@@ -3133,11 +3136,11 @@
       </c>
       <c r="F5" s="13">
         <f ca="1">F3</f>
-        <v>43642</v>
+        <v>43696</v>
       </c>
       <c r="G5" s="13">
         <f ca="1">G3+5</f>
-        <v>43737</v>
+        <v>43791</v>
       </c>
       <c r="H5" s="12" t="str">
         <f>H3</f>
@@ -3164,7 +3167,7 @@
       </c>
       <c r="N5" s="22" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.ValueTrade(M5,D5,Metrics,H5,F5,$AA$3:$AB$3)</f>
-        <v>ValuationReport.LOCAL_USER.SpreadSheet.bulletPayment.t0002.LOCAL_USER.2019-06-26</v>
+        <v>ValuationReport.LOCAL_USER.SpreadSheet.bulletPayment.t0002.LOCAL_USER.2019-08-19</v>
       </c>
       <c r="O5" s="22" t="str">
         <f t="array" aca="1" ref="O5:W6" ca="1">TRANSPOSE(_xll.HLV5r3.Financial.Cache.ViewValuationReport(N5))</f>
@@ -3202,13 +3205,12 @@
         <f ca="1"/>
         <v>LocalCurrencyExpectedValue.AUD</v>
       </c>
-      <c r="X5" s="1" t="e">
-        <f t="array" aca="1" ref="X5:Y18" ca="1">_xll.HLV5r3.Financial.Cache.qViewTrade(M3)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="Y5" s="18" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+      <c r="X5" s="1" t="str">
+        <f t="array" ref="X5:Y18">_xll.HLV5r3.Financial.Cache.ViewTrade(M3)</f>
+        <v>payerPartyReference</v>
+      </c>
+      <c r="Y5" s="18" t="str">
+        <v>Party1</v>
       </c>
     </row>
     <row r="6" spans="2:28">
@@ -3227,7 +3229,7 @@
       <c r="N6" s="15"/>
       <c r="O6" s="17">
         <f ca="1"/>
-        <v>987016.55543465691</v>
+        <v>987148.629589441</v>
       </c>
       <c r="P6" s="17">
         <f ca="1"/>
@@ -3235,39 +3237,37 @@
       </c>
       <c r="Q6" s="17">
         <f ca="1"/>
-        <v>25.641158715898897</v>
+        <v>25.377402581981791</v>
       </c>
       <c r="R6" s="17">
         <f ca="1"/>
-        <v>25.65609855614154</v>
+        <v>25.389338887962122</v>
       </c>
       <c r="S6" s="17">
         <f ca="1"/>
-        <v>24.372455550268484</v>
+        <v>24.375663006377223</v>
       </c>
       <c r="T6" s="17">
         <f ca="1"/>
-        <v>1.2836430058730552</v>
+        <v>1.0136758815849032</v>
       </c>
       <c r="U6" s="17">
         <f ca="1"/>
-        <v>1974033.1108693138</v>
+        <v>1974297.259178882</v>
       </c>
       <c r="V6" s="17">
         <f ca="1"/>
-        <v>987016.55543465703</v>
+        <v>987148.629589441</v>
       </c>
       <c r="W6" s="17">
         <f ca="1"/>
         <v>1000000</v>
       </c>
-      <c r="X6" s="1" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="Y6" s="1" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+      <c r="X6" s="1" t="str">
+        <v>receiverPartyReference</v>
+      </c>
+      <c r="Y6" s="1" t="str">
+        <v>Party2</v>
       </c>
     </row>
     <row r="7" spans="2:28">
@@ -3288,11 +3288,11 @@
       </c>
       <c r="F7" s="13">
         <f ca="1">F5</f>
-        <v>43642</v>
+        <v>43696</v>
       </c>
       <c r="G7" s="13">
         <f ca="1">G5+5</f>
-        <v>43742</v>
+        <v>43796</v>
       </c>
       <c r="H7" s="12" t="str">
         <f>H5</f>
@@ -3319,7 +3319,7 @@
       </c>
       <c r="N7" s="22" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.ValueTrade(M7,D7,Metrics,H7,F7,$AA$3:$AB$3)</f>
-        <v>ValuationReport.LOCAL_USER.SpreadSheet.bulletPayment.t0003.LOCAL_USER.2019-06-26</v>
+        <v>ValuationReport.LOCAL_USER.SpreadSheet.bulletPayment.t0003.LOCAL_USER.2019-08-19</v>
       </c>
       <c r="O7" s="22" t="str">
         <f t="array" aca="1" ref="O7:W8" ca="1">TRANSPOSE(_xll.HLV5r3.Financial.Cache.ViewValuationReport(N7))</f>
@@ -3357,13 +3357,11 @@
         <f ca="1"/>
         <v>LocalCurrencyExpectedValue.AUD</v>
       </c>
-      <c r="X7" s="1" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="Y7" s="19" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+      <c r="X7" s="1" t="str">
+        <v>amount</v>
+      </c>
+      <c r="Y7" s="19">
+        <v>1000000</v>
       </c>
     </row>
     <row r="8" spans="2:28">
@@ -3382,7 +3380,7 @@
       <c r="N8" s="15"/>
       <c r="O8" s="17">
         <f ca="1"/>
-        <v>986476.76456466597</v>
+        <v>986473.84821665089</v>
       </c>
       <c r="P8" s="17">
         <f ca="1"/>
@@ -3390,39 +3388,37 @@
       </c>
       <c r="Q8" s="17">
         <f ca="1"/>
-        <v>26.694872400310437</v>
+        <v>26.694722304052522</v>
       </c>
       <c r="R8" s="17">
         <f ca="1"/>
-        <v>26.721096681294295</v>
+        <v>26.720952124843631</v>
       </c>
       <c r="S8" s="17">
         <f ca="1"/>
-        <v>24.359071065283278</v>
+        <v>24.358934102447929</v>
       </c>
       <c r="T8" s="17">
         <f ca="1"/>
-        <v>2.3620256160110134</v>
+        <v>2.3620180223957044</v>
       </c>
       <c r="U8" s="17">
         <f ca="1"/>
-        <v>1972953.5291293319</v>
+        <v>1972947.6964333018</v>
       </c>
       <c r="V8" s="17">
         <f ca="1"/>
-        <v>986476.76456466608</v>
+        <v>986473.84821665101</v>
       </c>
       <c r="W8" s="17">
         <f ca="1"/>
         <v>1000000</v>
       </c>
-      <c r="X8" s="1" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="Y8" s="1" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+      <c r="X8" s="1" t="str">
+        <v>currency</v>
+      </c>
+      <c r="Y8" s="1" t="str">
+        <v>AUD</v>
       </c>
     </row>
     <row r="9" spans="2:28">
@@ -3443,11 +3439,11 @@
       </c>
       <c r="F9" s="13">
         <f ca="1">F7</f>
-        <v>43642</v>
+        <v>43696</v>
       </c>
       <c r="G9" s="13">
         <f ca="1">G7+5</f>
-        <v>43747</v>
+        <v>43801</v>
       </c>
       <c r="H9" s="12" t="str">
         <f>H7</f>
@@ -3474,7 +3470,7 @@
       </c>
       <c r="N9" s="22" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.ValueTrade(M9,D9,Metrics,H9,F9,$AA$3:$AB$3)</f>
-        <v>ValuationReport.LOCAL_USER.SpreadSheet.bulletPayment.t0004.LOCAL_USER.2019-06-26</v>
+        <v>ValuationReport.LOCAL_USER.SpreadSheet.bulletPayment.t0004.LOCAL_USER.2019-08-19</v>
       </c>
       <c r="O9" s="22" t="str">
         <f t="array" aca="1" ref="O9:W10" ca="1">TRANSPOSE(_xll.HLV5r3.Financial.Cache.ViewValuationReport(N9))</f>
@@ -3502,23 +3498,21 @@
       </c>
       <c r="U9" s="22" t="str">
         <f ca="1"/>
-        <v>BucketedDeltaVector.AUD.2</v>
+        <v>RiskNPV.AUD</v>
       </c>
       <c r="V9" s="22" t="str">
         <f ca="1"/>
-        <v>BucketedDeltaVector.AUD.3</v>
+        <v>LocalCurrencyNPV.AUD</v>
       </c>
       <c r="W9" s="22" t="str">
         <f ca="1"/>
-        <v>BucketedDeltaVector.AUD.4</v>
-      </c>
-      <c r="X9" s="1" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="Y9" s="18" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>LocalCurrencyExpectedValue.AUD</v>
+      </c>
+      <c r="X9" s="1" t="str">
+        <v>businessDayConvention</v>
+      </c>
+      <c r="Y9" s="18" t="str">
+        <v>MODFOLLOWING</v>
       </c>
     </row>
     <row r="10" spans="2:28">
@@ -3537,47 +3531,45 @@
       <c r="N10" s="15"/>
       <c r="O10" s="17">
         <f ca="1"/>
-        <v>0</v>
+        <v>985799.2296002541</v>
       </c>
       <c r="P10" s="17">
         <f ca="1"/>
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="Q10" s="17">
         <f ca="1"/>
-        <v>-108.01749018824208</v>
+        <v>28.010213451451737</v>
       </c>
       <c r="R10" s="17">
         <f ca="1"/>
-        <v>-142.15778358809655</v>
+        <v>28.048889343426008</v>
       </c>
       <c r="S10" s="17">
         <f ca="1"/>
-        <v>26.006849550599227</v>
+        <v>24.342209308999749</v>
       </c>
       <c r="T10" s="17">
         <f ca="1"/>
-        <v>26.006849550599227</v>
+        <v>3.7066800344262592</v>
       </c>
       <c r="U10" s="17">
         <f ca="1"/>
-        <v>26.006849550599227</v>
+        <v>1971598.4592005082</v>
       </c>
       <c r="V10" s="17">
         <f ca="1"/>
-        <v>26.006849550599227</v>
+        <v>985799.22960025398</v>
       </c>
       <c r="W10" s="17">
         <f ca="1"/>
-        <v>26.006849550599227</v>
-      </c>
-      <c r="X10" s="1" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="Y10" s="1" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>1000000</v>
+      </c>
+      <c r="X10" s="1" t="str">
+        <v>party1</v>
+      </c>
+      <c r="Y10" s="1" t="str">
+        <v>CBA</v>
       </c>
     </row>
     <row r="11" spans="2:28">
@@ -3598,11 +3590,11 @@
       </c>
       <c r="F11" s="13">
         <f ca="1">F9</f>
-        <v>43642</v>
+        <v>43696</v>
       </c>
       <c r="G11" s="13">
         <f ca="1">G9+5</f>
-        <v>43752</v>
+        <v>43806</v>
       </c>
       <c r="H11" s="12" t="str">
         <f>H9</f>
@@ -3629,7 +3621,7 @@
       </c>
       <c r="N11" s="22" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.ValueTrade(M11,D11,Metrics,H11,F11,$AA$3:$AB$3)</f>
-        <v>ValuationReport.LOCAL_USER.SpreadSheet.bulletPayment.t0005.LOCAL_USER.2019-06-26</v>
+        <v>ValuationReport.LOCAL_USER.SpreadSheet.bulletPayment.t0005.LOCAL_USER.2019-08-19</v>
       </c>
       <c r="O11" s="22" t="str">
         <f t="array" aca="1" ref="O11:W12" ca="1">TRANSPOSE(_xll.HLV5r3.Financial.Cache.ViewValuationReport(N11))</f>
@@ -3657,23 +3649,21 @@
       </c>
       <c r="U11" s="22" t="str">
         <f ca="1"/>
-        <v>BucketedDeltaVector.AUD.2</v>
+        <v>RiskNPV.AUD</v>
       </c>
       <c r="V11" s="22" t="str">
         <f ca="1"/>
-        <v>BucketedDeltaVector.AUD.3</v>
+        <v>LocalCurrencyNPV.AUD</v>
       </c>
       <c r="W11" s="22" t="str">
         <f ca="1"/>
-        <v>BucketedDeltaVector.AUD.4</v>
-      </c>
-      <c r="X11" s="1" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="Y11" s="1" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>LocalCurrencyExpectedValue.AUD</v>
+      </c>
+      <c r="X11" s="1" t="str">
+        <v>party2</v>
+      </c>
+      <c r="Y11" s="1" t="str">
+        <v>XYZ</v>
       </c>
     </row>
     <row r="12" spans="2:28">
@@ -3692,47 +3682,45 @@
       <c r="N12" s="15"/>
       <c r="O12" s="17">
         <f ca="1"/>
-        <v>0</v>
+        <v>984855.03753601795</v>
       </c>
       <c r="P12" s="17">
         <f ca="1"/>
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="Q12" s="17">
         <f ca="1"/>
-        <v>-107.41804543019374</v>
+        <v>29.848830356021494</v>
       </c>
       <c r="R12" s="17">
         <f ca="1"/>
-        <v>-141.38324509187169</v>
+        <v>29.901838998010483</v>
       </c>
       <c r="S12" s="17">
         <f ca="1"/>
-        <v>25.999725850146294</v>
+        <v>24.318801517740738</v>
       </c>
       <c r="T12" s="17">
         <f ca="1"/>
-        <v>25.999725850146294</v>
+        <v>5.5830374802697458</v>
       </c>
       <c r="U12" s="17">
         <f ca="1"/>
-        <v>25.999725850146294</v>
+        <v>1969710.0750720359</v>
       </c>
       <c r="V12" s="17">
         <f ca="1"/>
-        <v>25.999725850146294</v>
+        <v>984855.03753601795</v>
       </c>
       <c r="W12" s="17">
         <f ca="1"/>
-        <v>25.999725850146294</v>
+        <v>1000000</v>
       </c>
       <c r="X12" s="1" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
       <c r="Y12" s="1" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="13" spans="2:28">
@@ -3753,11 +3741,11 @@
       </c>
       <c r="F13" s="13">
         <f ca="1">F11</f>
-        <v>43642</v>
+        <v>43696</v>
       </c>
       <c r="G13" s="13">
         <f ca="1">G11+5</f>
-        <v>43757</v>
+        <v>43811</v>
       </c>
       <c r="H13" s="12" t="str">
         <f>H11</f>
@@ -3784,7 +3772,7 @@
       </c>
       <c r="N13" s="22" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.ValueTrade(M13,D13,Metrics,H13,F13,$AA$3:$AB$3)</f>
-        <v>ValuationReport.LOCAL_USER.SpreadSheet.bulletPayment.t0006.LOCAL_USER.2019-06-26</v>
+        <v>ValuationReport.LOCAL_USER.SpreadSheet.bulletPayment.t0006.LOCAL_USER.2019-08-19</v>
       </c>
       <c r="O13" s="22" t="str">
         <f t="array" aca="1" ref="O13:W14" ca="1">TRANSPOSE(_xll.HLV5r3.Financial.Cache.ViewValuationReport(N13))</f>
@@ -3812,23 +3800,21 @@
       </c>
       <c r="U13" s="22" t="str">
         <f ca="1"/>
-        <v>BucketedDeltaVector.AUD.2</v>
+        <v>RiskNPV.AUD</v>
       </c>
       <c r="V13" s="22" t="str">
         <f ca="1"/>
-        <v>BucketedDeltaVector.AUD.3</v>
+        <v>LocalCurrencyNPV.AUD</v>
       </c>
       <c r="W13" s="22" t="str">
         <f ca="1"/>
-        <v>BucketedDeltaVector.AUD.4</v>
+        <v>LocalCurrencyExpectedValue.AUD</v>
       </c>
       <c r="X13" s="1" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
       <c r="Y13" s="1" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="14" spans="2:28">
@@ -3847,47 +3833,45 @@
       <c r="N14" s="15"/>
       <c r="O14" s="17">
         <f ca="1"/>
-        <v>0</v>
+        <v>984450.48182965897</v>
       </c>
       <c r="P14" s="17">
         <f ca="1"/>
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="Q14" s="17">
         <f ca="1"/>
-        <v>-105.92083452203215</v>
+        <v>30.63571276197246</v>
       </c>
       <c r="R14" s="17">
         <f ca="1"/>
-        <v>-139.45069733191559</v>
+        <v>30.69376357500888</v>
       </c>
       <c r="S14" s="17">
         <f ca="1"/>
-        <v>25.981925134772695</v>
+        <v>24.308772082869446</v>
       </c>
       <c r="T14" s="17">
         <f ca="1"/>
-        <v>25.981925134772695</v>
+        <v>6.3849914921394308</v>
       </c>
       <c r="U14" s="17">
         <f ca="1"/>
-        <v>25.981925134772695</v>
+        <v>1968900.9636593179</v>
       </c>
       <c r="V14" s="17">
         <f ca="1"/>
-        <v>25.981925134772695</v>
+        <v>984450.48182965897</v>
       </c>
       <c r="W14" s="17">
         <f ca="1"/>
-        <v>25.981925134772695</v>
+        <v>1000000</v>
       </c>
       <c r="X14" s="1" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
       <c r="Y14" s="1" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="15" spans="2:28">
@@ -3908,11 +3892,11 @@
       </c>
       <c r="F15" s="13">
         <f ca="1">F13</f>
-        <v>43642</v>
+        <v>43696</v>
       </c>
       <c r="G15" s="13">
         <f ca="1">G13+5</f>
-        <v>43762</v>
+        <v>43816</v>
       </c>
       <c r="H15" s="12" t="str">
         <f>H13</f>
@@ -3939,7 +3923,7 @@
       </c>
       <c r="N15" s="22" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.ValueTrade(M15,D15,Metrics,H15,F15,$AA$3:$AB$3)</f>
-        <v>ValuationReport.LOCAL_USER.SpreadSheet.bulletPayment.t0007.LOCAL_USER.2019-06-26</v>
+        <v>ValuationReport.LOCAL_USER.SpreadSheet.bulletPayment.t0007.LOCAL_USER.2019-08-19</v>
       </c>
       <c r="O15" s="22" t="str">
         <f t="array" aca="1" ref="O15:W16" ca="1">TRANSPOSE(_xll.HLV5r3.Financial.Cache.ViewValuationReport(N15))</f>
@@ -3967,23 +3951,21 @@
       </c>
       <c r="U15" s="22" t="str">
         <f ca="1"/>
-        <v>BucketedDeltaVector.AUD.2</v>
+        <v>RiskNPV.AUD</v>
       </c>
       <c r="V15" s="22" t="str">
         <f ca="1"/>
-        <v>BucketedDeltaVector.AUD.3</v>
+        <v>LocalCurrencyNPV.AUD</v>
       </c>
       <c r="W15" s="22" t="str">
         <f ca="1"/>
-        <v>BucketedDeltaVector.AUD.4</v>
+        <v>LocalCurrencyExpectedValue.AUD</v>
       </c>
       <c r="X15" s="1" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
       <c r="Y15" s="1" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
       <c r="AA15" s="1" t="str">
         <f t="array" aca="1" ref="AA15:AB18" ca="1">_xll.HLV5r3.Financial.Cache.ViewValuationReport(N3)</f>
@@ -3991,7 +3973,7 @@
       </c>
       <c r="AB15" s="14">
         <f ca="1"/>
-        <v>987818.12838638504</v>
+        <v>987684.44596481009</v>
       </c>
     </row>
     <row r="16" spans="2:28">
@@ -4010,47 +3992,45 @@
       <c r="N16" s="15"/>
       <c r="O16" s="17">
         <f ca="1"/>
-        <v>0</v>
+        <v>983776.35327108297</v>
       </c>
       <c r="P16" s="17">
         <f ca="1"/>
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="Q16" s="17">
         <f ca="1"/>
-        <v>-104.12682096192738</v>
+        <v>31.945722298949942</v>
       </c>
       <c r="R16" s="17">
         <f ca="1"/>
-        <v>-137.13878565540318</v>
+        <v>32.010714486088666</v>
       </c>
       <c r="S16" s="17">
         <f ca="1"/>
-        <v>25.960580362775538</v>
+        <v>24.292059664826535</v>
       </c>
       <c r="T16" s="17">
         <f ca="1"/>
-        <v>25.960580362775538</v>
+        <v>7.7186548212621338</v>
       </c>
       <c r="U16" s="17">
         <f ca="1"/>
-        <v>25.960580362775538</v>
+        <v>1967552.7065421659</v>
       </c>
       <c r="V16" s="17">
         <f ca="1"/>
-        <v>25.960580362775538</v>
+        <v>983776.35327108309</v>
       </c>
       <c r="W16" s="17">
         <f ca="1"/>
-        <v>25.960580362775538</v>
+        <v>1000000</v>
       </c>
       <c r="X16" s="1" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
       <c r="Y16" s="1" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
       <c r="AA16" s="1" t="str">
         <f ca="1"/>
@@ -4061,7 +4041,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="17" spans="2:28">
+    <row r="17" spans="2:34">
       <c r="B17" s="12" t="s">
         <v>34</v>
       </c>
@@ -4079,11 +4059,11 @@
       </c>
       <c r="F17" s="13">
         <f ca="1">F15</f>
-        <v>43642</v>
+        <v>43696</v>
       </c>
       <c r="G17" s="13">
         <f ca="1">G15+5</f>
-        <v>43767</v>
+        <v>43821</v>
       </c>
       <c r="H17" s="12" t="str">
         <f>H15</f>
@@ -4110,7 +4090,7 @@
       </c>
       <c r="N17" s="22" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.ValueTrade(M17,D17,Metrics,H17,F17,$AA$3:$AB$3)</f>
-        <v>ValuationReport.LOCAL_USER.SpreadSheet.bulletPayment.t0008.LOCAL_USER.2019-06-26</v>
+        <v>ValuationReport.LOCAL_USER.SpreadSheet.bulletPayment.t0008.LOCAL_USER.2019-08-19</v>
       </c>
       <c r="O17" s="22" t="str">
         <f t="array" aca="1" ref="O17:W18" ca="1">TRANSPOSE(_xll.HLV5r3.Financial.Cache.ViewValuationReport(N17))</f>
@@ -4138,23 +4118,21 @@
       </c>
       <c r="U17" s="22" t="str">
         <f ca="1"/>
-        <v>BucketedDeltaVector.AUD.2</v>
+        <v>RiskNPV.AUD</v>
       </c>
       <c r="V17" s="22" t="str">
         <f ca="1"/>
-        <v>BucketedDeltaVector.AUD.3</v>
+        <v>LocalCurrencyNPV.AUD</v>
       </c>
       <c r="W17" s="22" t="str">
         <f ca="1"/>
-        <v>BucketedDeltaVector.AUD.4</v>
+        <v>LocalCurrencyExpectedValue.AUD</v>
       </c>
       <c r="X17" s="1" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
       <c r="Y17" s="1" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
       <c r="AA17" s="1" t="str">
         <f ca="1"/>
@@ -4162,10 +4140,10 @@
       </c>
       <c r="AB17" s="1">
         <f ca="1"/>
-        <v>24.057988095832854</v>
-      </c>
-    </row>
-    <row r="18" spans="2:28">
+        <v>24.322027480591917</v>
+      </c>
+    </row>
+    <row r="18" spans="2:34">
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
@@ -4181,47 +4159,45 @@
       <c r="N18" s="15"/>
       <c r="O18" s="17">
         <f ca="1"/>
-        <v>0</v>
+        <v>982967.61543780903</v>
       </c>
       <c r="P18" s="17">
         <f ca="1"/>
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="Q18" s="17">
         <f ca="1"/>
-        <v>-102.93241000770504</v>
+        <v>33.515323712501939</v>
       </c>
       <c r="R18" s="17">
         <f ca="1"/>
-        <v>-128.68361691779424</v>
+        <v>33.586240535560727</v>
       </c>
       <c r="S18" s="17">
         <f ca="1"/>
-        <v>25.946360257467099</v>
+        <v>24.272010228300005</v>
       </c>
       <c r="T18" s="17">
         <f ca="1"/>
-        <v>25.946360257467099</v>
+        <v>9.3142303072607291</v>
       </c>
       <c r="U18" s="17">
         <f ca="1"/>
-        <v>25.946360257467099</v>
+        <v>1965935.2308756181</v>
       </c>
       <c r="V18" s="17">
         <f ca="1"/>
-        <v>25.946360257467099</v>
+        <v>982967.61543780903</v>
       </c>
       <c r="W18" s="17">
         <f ca="1"/>
-        <v>-232.46905794766263</v>
+        <v>1000000</v>
       </c>
       <c r="X18" s="1" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
       <c r="Y18" s="1" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
       <c r="AA18" s="1" t="str">
         <f ca="1"/>
@@ -4229,10 +4205,10 @@
       </c>
       <c r="AB18" s="1">
         <f ca="1"/>
-        <v>24.062036675786672</v>
-      </c>
-    </row>
-    <row r="19" spans="2:28">
+        <v>24.322845917989024</v>
+      </c>
+    </row>
+    <row r="19" spans="2:34">
       <c r="B19" s="12" t="s">
         <v>35</v>
       </c>
@@ -4250,11 +4226,11 @@
       </c>
       <c r="F19" s="13">
         <f ca="1">F17</f>
-        <v>43642</v>
+        <v>43696</v>
       </c>
       <c r="G19" s="13">
         <f ca="1">G17+5</f>
-        <v>43772</v>
+        <v>43826</v>
       </c>
       <c r="H19" s="12" t="str">
         <f>H17</f>
@@ -4281,7 +4257,7 @@
       </c>
       <c r="N19" s="22" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.ValueTrade(M19,D19,Metrics,H19,F19,$AA$3:$AB$3)</f>
-        <v>ValuationReport.LOCAL_USER.SpreadSheet.bulletPayment.t0009.LOCAL_USER.2019-06-26</v>
+        <v>ValuationReport.LOCAL_USER.SpreadSheet.bulletPayment.t0009.LOCAL_USER.2019-08-19</v>
       </c>
       <c r="O19" s="22" t="str">
         <f t="array" aca="1" ref="O19:W20" ca="1">TRANSPOSE(_xll.HLV5r3.Financial.Cache.ViewValuationReport(N19))</f>
@@ -4309,18 +4285,18 @@
       </c>
       <c r="U19" s="22" t="str">
         <f ca="1"/>
-        <v>BucketedDeltaVector.AUD.2</v>
+        <v>RiskNPV.AUD</v>
       </c>
       <c r="V19" s="22" t="str">
         <f ca="1"/>
-        <v>BucketedDeltaVector.AUD.3</v>
+        <v>LocalCurrencyNPV.AUD</v>
       </c>
       <c r="W19" s="22" t="str">
         <f ca="1"/>
-        <v>BucketedDeltaVector.AUD.4</v>
-      </c>
-    </row>
-    <row r="20" spans="2:28">
+        <v>LocalCurrencyExpectedValue.AUD</v>
+      </c>
+    </row>
+    <row r="20" spans="2:34">
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
       <c r="D20" s="16"/>
@@ -4336,39 +4312,39 @@
       <c r="N20" s="15"/>
       <c r="O20" s="17">
         <f ca="1"/>
-        <v>0</v>
+        <v>982428.588293768</v>
       </c>
       <c r="P20" s="17">
         <f ca="1"/>
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="Q20" s="17">
         <f ca="1"/>
-        <v>-101.44119233041573</v>
+        <v>34.560264582917277</v>
       </c>
       <c r="R20" s="17">
         <f ca="1"/>
-        <v>-126.8222974981914</v>
+        <v>34.633678564421849</v>
       </c>
       <c r="S20" s="17">
         <f ca="1"/>
-        <v>25.92859607885276</v>
+        <v>24.258647255316927</v>
       </c>
       <c r="T20" s="17">
         <f ca="1"/>
-        <v>25.92859607885276</v>
+        <v>10.375031309104923</v>
       </c>
       <c r="U20" s="17">
         <f ca="1"/>
-        <v>25.92859607885276</v>
+        <v>1964857.176587536</v>
       </c>
       <c r="V20" s="17">
         <f ca="1"/>
-        <v>25.92859607885276</v>
+        <v>982428.588293768</v>
       </c>
       <c r="W20" s="17">
         <f ca="1"/>
-        <v>-230.53668181360243</v>
+        <v>1000000</v>
       </c>
       <c r="AA20" s="1" t="s">
         <v>36</v>
@@ -4377,7 +4353,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="2:28">
+    <row r="21" spans="2:34">
       <c r="B21" s="12" t="s">
         <v>37</v>
       </c>
@@ -4395,11 +4371,11 @@
       </c>
       <c r="F21" s="13">
         <f ca="1">F19</f>
-        <v>43642</v>
+        <v>43696</v>
       </c>
       <c r="G21" s="13">
         <f ca="1">G19+5</f>
-        <v>43777</v>
+        <v>43831</v>
       </c>
       <c r="H21" s="12" t="str">
         <f>H19</f>
@@ -4426,7 +4402,7 @@
       </c>
       <c r="N21" s="22" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.ValueTrade(M21,D21,Metrics,H21,F21,$AA$3:$AB$3)</f>
-        <v>ValuationReport.LOCAL_USER.SpreadSheet.bulletPayment.t0010.LOCAL_USER.2019-06-26</v>
+        <v>ValuationReport.LOCAL_USER.SpreadSheet.bulletPayment.t0010.LOCAL_USER.2019-08-19</v>
       </c>
       <c r="O21" s="22" t="str">
         <f t="array" aca="1" ref="O21:W22" ca="1">TRANSPOSE(_xll.HLV5r3.Financial.Cache.ViewValuationReport(N21))</f>
@@ -4454,18 +4430,18 @@
       </c>
       <c r="U21" s="22" t="str">
         <f ca="1"/>
-        <v>BucketedDeltaVector.AUD.2</v>
+        <v>RiskNPV.AUD</v>
       </c>
       <c r="V21" s="22" t="str">
         <f ca="1"/>
-        <v>BucketedDeltaVector.AUD.3</v>
+        <v>LocalCurrencyNPV.AUD</v>
       </c>
       <c r="W21" s="22" t="str">
         <f ca="1"/>
-        <v>BucketedDeltaVector.AUD.4</v>
-      </c>
-    </row>
-    <row r="22" spans="2:28">
+        <v>LocalCurrencyExpectedValue.AUD</v>
+      </c>
+    </row>
+    <row r="22" spans="2:34">
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
       <c r="D22" s="16"/>
@@ -4481,46 +4457,46 @@
       <c r="N22" s="15"/>
       <c r="O22" s="17">
         <f ca="1"/>
-        <v>0</v>
+        <v>981620.24507448089</v>
       </c>
       <c r="P22" s="17">
         <f ca="1"/>
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="Q22" s="17">
         <f ca="1"/>
-        <v>-99.951968328710791</v>
+        <v>36.125486667202885</v>
       </c>
       <c r="R22" s="17">
         <f ca="1"/>
-        <v>-124.96616008895852</v>
+        <v>36.200475447453051</v>
       </c>
       <c r="S22" s="17">
         <f ca="1"/>
-        <v>25.910844062485392</v>
+        <v>24.238607782222552</v>
       </c>
       <c r="T22" s="17">
         <f ca="1"/>
-        <v>25.910844062485392</v>
+        <v>11.961867665230498</v>
       </c>
       <c r="U22" s="17">
         <f ca="1"/>
-        <v>25.910844062485392</v>
+        <v>1963240.4901489618</v>
       </c>
       <c r="V22" s="17">
         <f ca="1"/>
-        <v>25.910844062485392</v>
+        <v>981620.245074481</v>
       </c>
       <c r="W22" s="17">
         <f ca="1"/>
-        <v>-228.60953633890006</v>
+        <v>1000000</v>
       </c>
       <c r="AB22" s="14">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetNPVWithSpecifiedCurves(L3,C3,H3,F3,AA3:AB3)</f>
-        <v>-987818.12838638504</v>
-      </c>
-    </row>
-    <row r="23" spans="2:28">
+        <v>-987684.44596481009</v>
+      </c>
+    </row>
+    <row r="23" spans="2:34">
       <c r="B23" s="12" t="s">
         <v>38</v>
       </c>
@@ -4538,11 +4514,11 @@
       </c>
       <c r="F23" s="13">
         <f ca="1">F21</f>
-        <v>43642</v>
+        <v>43696</v>
       </c>
       <c r="G23" s="13">
         <f ca="1">G21+5</f>
-        <v>43782</v>
+        <v>43836</v>
       </c>
       <c r="H23" s="13" t="str">
         <f>H21</f>
@@ -4569,7 +4545,7 @@
       </c>
       <c r="N23" s="22" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.ValueTrade(M23,D23,Metrics,H23,F23,$AA$3:$AB$3)</f>
-        <v>ValuationReport.LOCAL_USER.SpreadSheet.bulletPayment.t0011.LOCAL_USER.2019-06-26</v>
+        <v>ValuationReport.LOCAL_USER.SpreadSheet.bulletPayment.t0011.LOCAL_USER.2019-08-19</v>
       </c>
       <c r="O23" s="22" t="str">
         <f t="array" aca="1" ref="O23:W24" ca="1">TRANSPOSE(_xll.HLV5r3.Financial.Cache.ViewValuationReport(N23))</f>
@@ -4597,22 +4573,22 @@
       </c>
       <c r="U23" s="22" t="str">
         <f ca="1"/>
-        <v>BucketedDeltaVector.AUD.2</v>
+        <v>RiskNPV.AUD</v>
       </c>
       <c r="V23" s="22" t="str">
         <f ca="1"/>
-        <v>BucketedDeltaVector.AUD.3</v>
+        <v>LocalCurrencyNPV.AUD</v>
       </c>
       <c r="W23" s="22" t="str">
         <f ca="1"/>
-        <v>BucketedDeltaVector.AUD.4</v>
+        <v>LocalCurrencyExpectedValue.AUD</v>
       </c>
       <c r="AB23" s="23">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetParRateWithSpecifiedCurves(L3,C3,F3,AA3:AB3)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:28">
+    <row r="24" spans="2:34">
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
       <c r="D24" s="16"/>
@@ -4628,42 +4604,42 @@
       <c r="N24" s="15"/>
       <c r="O24" s="17">
         <f ca="1"/>
-        <v>0</v>
+        <v>981081.48148061906</v>
       </c>
       <c r="P24" s="17">
         <f ca="1"/>
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="Q24" s="17">
         <f ca="1"/>
-        <v>-97.870400234750747</v>
+        <v>37.16750909419607</v>
       </c>
       <c r="R24" s="17">
         <f ca="1"/>
-        <v>-122.37624646443211</v>
+        <v>37.242105081526432</v>
       </c>
       <c r="S24" s="17">
         <f ca="1"/>
-        <v>25.886011656292769</v>
+        <v>24.225251463181394</v>
       </c>
       <c r="T24" s="17">
         <f ca="1"/>
-        <v>25.886011656292769</v>
+        <v>13.016853618345031</v>
       </c>
       <c r="U24" s="17">
         <f ca="1"/>
-        <v>25.886011656292769</v>
+        <v>1962162.9629612381</v>
       </c>
       <c r="V24" s="17">
         <f ca="1"/>
-        <v>25.886011656292769</v>
+        <v>981081.48148061906</v>
       </c>
       <c r="W24" s="17">
         <f ca="1"/>
-        <v>-225.92029308960318</v>
-      </c>
-    </row>
-    <row r="25" spans="2:28">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="25" spans="2:34">
       <c r="B25" s="12" t="s">
         <v>39</v>
       </c>
@@ -4681,11 +4657,11 @@
       </c>
       <c r="F25" s="13">
         <f ca="1">F23</f>
-        <v>43642</v>
+        <v>43696</v>
       </c>
       <c r="G25" s="13">
         <f ca="1">G23+5</f>
-        <v>43787</v>
+        <v>43841</v>
       </c>
       <c r="H25" s="13" t="str">
         <f>H23</f>
@@ -4712,7 +4688,7 @@
       </c>
       <c r="N25" s="22" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.ValueTrade(M25,D25,Metrics,H25,F25,$AA$3:$AB$3)</f>
-        <v>ValuationReport.LOCAL_USER.SpreadSheet.bulletPayment.t0012.LOCAL_USER.2019-06-26</v>
+        <v>ValuationReport.LOCAL_USER.SpreadSheet.bulletPayment.t0012.LOCAL_USER.2019-08-19</v>
       </c>
       <c r="O25" s="22" t="str">
         <f t="array" aca="1" ref="O25:W26" ca="1">TRANSPOSE(_xll.HLV5r3.Financial.Cache.ViewValuationReport(N25))</f>
@@ -4740,18 +4716,18 @@
       </c>
       <c r="U25" s="22" t="str">
         <f ca="1"/>
-        <v>BucketedDeltaVector.AUD.2</v>
+        <v>RiskNPV.AUD</v>
       </c>
       <c r="V25" s="22" t="str">
         <f ca="1"/>
-        <v>BucketedDeltaVector.AUD.3</v>
+        <v>LocalCurrencyNPV.AUD</v>
       </c>
       <c r="W25" s="22" t="str">
         <f ca="1"/>
-        <v>BucketedDeltaVector.AUD.4</v>
-      </c>
-    </row>
-    <row r="26" spans="2:28">
+        <v>LocalCurrencyExpectedValue.AUD</v>
+      </c>
+    </row>
+    <row r="26" spans="2:34">
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
       <c r="D26" s="16"/>
@@ -4767,42 +4743,42 @@
       <c r="N26" s="15"/>
       <c r="O26" s="17">
         <f ca="1"/>
-        <v>0</v>
+        <v>980138.89958753902</v>
       </c>
       <c r="P26" s="17">
         <f ca="1"/>
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="Q26" s="17">
         <f ca="1"/>
-        <v>-96.979493230146915</v>
+        <v>38.988241053129116</v>
       </c>
       <c r="R26" s="17">
         <f ca="1"/>
-        <v>-121.26937454509874</v>
+        <v>39.059383344168609</v>
       </c>
       <c r="S26" s="17">
         <f ca="1"/>
-        <v>25.875376483189783</v>
+        <v>24.201884327197508</v>
       </c>
       <c r="T26" s="17">
         <f ca="1"/>
-        <v>25.875376483189783</v>
+        <v>14.857499016971103</v>
       </c>
       <c r="U26" s="17">
         <f ca="1"/>
-        <v>25.875376483189783</v>
+        <v>1960277.799175078</v>
       </c>
       <c r="V26" s="17">
         <f ca="1"/>
-        <v>25.875376483189783</v>
+        <v>980138.89958753902</v>
       </c>
       <c r="W26" s="17">
         <f ca="1"/>
-        <v>-224.77088047785784</v>
-      </c>
-    </row>
-    <row r="27" spans="2:28">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="27" spans="2:34">
       <c r="B27" s="12" t="s">
         <v>40</v>
       </c>
@@ -4820,11 +4796,11 @@
       </c>
       <c r="F27" s="13">
         <f ca="1">F25</f>
-        <v>43642</v>
+        <v>43696</v>
       </c>
       <c r="G27" s="13">
         <f ca="1">G25+5</f>
-        <v>43792</v>
+        <v>43846</v>
       </c>
       <c r="H27" s="13" t="str">
         <f>H25</f>
@@ -4851,7 +4827,7 @@
       </c>
       <c r="N27" s="22" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.ValueTrade(M27,D27,Metrics,H27,F27,$AA$3:$AB$3)</f>
-        <v>ValuationReport.LOCAL_USER.SpreadSheet.bulletPayment.t0013.LOCAL_USER.2019-06-26</v>
+        <v>ValuationReport.LOCAL_USER.SpreadSheet.bulletPayment.t0013.LOCAL_USER.2019-08-19</v>
       </c>
       <c r="O27" s="22" t="str">
         <f t="array" aca="1" ref="O27:W28" ca="1">TRANSPOSE(_xll.HLV5r3.Financial.Cache.ViewValuationReport(N27))</f>
@@ -4879,18 +4855,18 @@
       </c>
       <c r="U27" s="22" t="str">
         <f ca="1"/>
-        <v>BucketedDeltaVector.AUD.2</v>
+        <v>RiskNPV.AUD</v>
       </c>
       <c r="V27" s="22" t="str">
         <f ca="1"/>
-        <v>BucketedDeltaVector.AUD.3</v>
+        <v>LocalCurrencyNPV.AUD</v>
       </c>
       <c r="W27" s="22" t="str">
         <f ca="1"/>
-        <v>BucketedDeltaVector.AUD.4</v>
-      </c>
-    </row>
-    <row r="28" spans="2:28">
+        <v>LocalCurrencyExpectedValue.AUD</v>
+      </c>
+    </row>
+    <row r="28" spans="2:34">
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
       <c r="D28" s="16"/>
@@ -4906,42 +4882,42 @@
       <c r="N28" s="15"/>
       <c r="O28" s="17">
         <f ca="1"/>
-        <v>0</v>
+        <v>979735.03519992193</v>
       </c>
       <c r="P28" s="17">
         <f ca="1"/>
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="Q28" s="17">
         <f ca="1"/>
-        <v>-95.496238076948899</v>
+        <v>39.767461391708984</v>
       </c>
       <c r="R28" s="17">
         <f ca="1"/>
-        <v>-119.42869814524734</v>
+        <v>39.836049206062995</v>
       </c>
       <c r="S28" s="17">
         <f ca="1"/>
-        <v>25.857660903624879</v>
+        <v>24.191872346622965</v>
       </c>
       <c r="T28" s="17">
         <f ca="1"/>
-        <v>25.857660903624879</v>
+        <v>15.64417685944003</v>
       </c>
       <c r="U28" s="17">
         <f ca="1"/>
-        <v>25.857660903624879</v>
+        <v>1959470.0703998439</v>
       </c>
       <c r="V28" s="17">
         <f ca="1"/>
-        <v>25.857660903624879</v>
+        <v>979735.03519992193</v>
       </c>
       <c r="W28" s="17">
         <f ca="1"/>
-        <v>-222.85934175974685</v>
-      </c>
-    </row>
-    <row r="29" spans="2:28">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="29" spans="2:34">
       <c r="B29" s="12" t="s">
         <v>41</v>
       </c>
@@ -4959,11 +4935,11 @@
       </c>
       <c r="F29" s="13">
         <f ca="1">F27</f>
-        <v>43642</v>
+        <v>43696</v>
       </c>
       <c r="G29" s="13">
         <f ca="1">G27+5</f>
-        <v>43797</v>
+        <v>43851</v>
       </c>
       <c r="H29" s="13" t="str">
         <f>H27</f>
@@ -4990,7 +4966,7 @@
       </c>
       <c r="N29" s="22" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.ValueTrade(M29,D29,Metrics,H29,F29,$AA$3:$AB$3)</f>
-        <v>ValuationReport.LOCAL_USER.SpreadSheet.bulletPayment.t0014.LOCAL_USER.2019-06-26</v>
+        <v>ValuationReport.LOCAL_USER.SpreadSheet.bulletPayment.t0014.LOCAL_USER.2019-08-19</v>
       </c>
       <c r="O29" s="22" t="str">
         <f t="array" aca="1" ref="O29:W30" ca="1">TRANSPOSE(_xll.HLV5r3.Financial.Cache.ViewValuationReport(N29))</f>
@@ -5018,18 +4994,18 @@
       </c>
       <c r="U29" s="22" t="str">
         <f ca="1"/>
-        <v>BucketedDeltaVector.AUD.2</v>
+        <v>RiskNPV.AUD</v>
       </c>
       <c r="V29" s="22" t="str">
         <f ca="1"/>
-        <v>BucketedDeltaVector.AUD.3</v>
+        <v>LocalCurrencyNPV.AUD</v>
       </c>
       <c r="W29" s="22" t="str">
         <f ca="1"/>
-        <v>BucketedDeltaVector.AUD.4</v>
-      </c>
-    </row>
-    <row r="30" spans="2:28">
+        <v>LocalCurrencyExpectedValue.AUD</v>
+      </c>
+    </row>
+    <row r="30" spans="2:34">
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
       <c r="D30" s="16"/>
@@ -5045,42 +5021,86 @@
       <c r="N30" s="15"/>
       <c r="O30" s="17">
         <f ca="1"/>
+        <v>979062.06049777695</v>
+      </c>
+      <c r="P30" s="17">
+        <f ca="1"/>
+        <v>1000000</v>
+      </c>
+      <c r="Q30" s="17">
+        <f ca="1"/>
+        <v>41.064704704376972</v>
+      </c>
+      <c r="R30" s="17">
+        <f ca="1"/>
+        <v>41.127607565166862</v>
+      </c>
+      <c r="S30" s="17">
+        <f ca="1"/>
+        <v>24.175189059834853</v>
+      </c>
+      <c r="T30" s="17">
+        <f ca="1"/>
+        <v>16.952418505332012</v>
+      </c>
+      <c r="U30" s="17">
+        <f ca="1"/>
+        <v>1958124.1209955539</v>
+      </c>
+      <c r="V30" s="17">
+        <f ca="1"/>
+        <v>979062.06049777695</v>
+      </c>
+      <c r="W30" s="17">
+        <f ca="1"/>
+        <v>1000000</v>
+      </c>
+      <c r="X30" s="12" t="str">
+        <f t="array" aca="1" ref="X30:AH30" ca="1">_xll.HLV5r3.Financial.Cache.ViewExpectedCashFlows(M3,D3,Metrics,H3,'GetInfo &amp; GetInstrumentInfo'!D7,F3)</f>
+        <v>Trade.SpreadSheet.bulletPayment.t0001</v>
+      </c>
+      <c r="Y30" s="12" t="str">
+        <f ca="1"/>
+        <v>PrincipalExchange</v>
+      </c>
+      <c r="Z30" s="12">
+        <f ca="1"/>
+        <v>43787</v>
+      </c>
+      <c r="AA30" s="12" t="str">
+        <f ca="1"/>
+        <v>AUD</v>
+      </c>
+      <c r="AB30" s="1">
+        <f ca="1"/>
+        <v>1000000</v>
+      </c>
+      <c r="AC30" s="1" t="str">
+        <f ca="1"/>
+        <v>DiscountedCashflow</v>
+      </c>
+      <c r="AD30" s="1">
+        <f ca="1"/>
+        <v>0.98768444596480998</v>
+      </c>
+      <c r="AE30" s="1">
+        <f ca="1"/>
+        <v>987684.44596480997</v>
+      </c>
+      <c r="AF30" s="1">
+        <f ca="1"/>
+        <v>0.24931506849315099</v>
+      </c>
+      <c r="AG30" s="1" t="b">
+        <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="P30" s="17">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q30" s="17">
-        <f ca="1"/>
-        <v>-93.718952658037608</v>
-      </c>
-      <c r="R30" s="17">
-        <f ca="1"/>
-        <v>-117.22665086388939</v>
-      </c>
-      <c r="S30" s="17">
-        <f ca="1"/>
-        <v>25.836418217661429</v>
-      </c>
-      <c r="T30" s="17">
-        <f ca="1"/>
-        <v>25.836418217661429</v>
-      </c>
-      <c r="U30" s="17">
-        <f ca="1"/>
-        <v>25.836418217661429</v>
-      </c>
-      <c r="V30" s="17">
-        <f ca="1"/>
-        <v>25.836418217661429</v>
-      </c>
-      <c r="W30" s="17">
-        <f ca="1"/>
-        <v>-220.5723237345351</v>
-      </c>
-    </row>
-    <row r="31" spans="2:28">
+      <c r="AH30" s="1" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:34">
       <c r="B31" s="12"/>
       <c r="C31" s="13"/>
       <c r="D31" s="13"/>
@@ -5098,10 +5118,10 @@
         <f ca="1"/>
         <v>-1000000</v>
       </c>
-      <c r="M31" s="12"/>
-      <c r="N31" s="12"/>
-      <c r="O31" s="12"/>
-      <c r="P31" s="12"/>
+      <c r="M31" s="24"/>
+      <c r="N31" s="24"/>
+      <c r="O31" s="24"/>
+      <c r="P31" s="24"/>
       <c r="Q31" s="12"/>
       <c r="R31" s="12"/>
       <c r="S31" s="12"/>
@@ -5110,7 +5130,7 @@
       <c r="V31" s="12"/>
       <c r="W31" s="12"/>
     </row>
-    <row r="32" spans="2:28">
+    <row r="32" spans="2:34">
       <c r="B32" s="12"/>
       <c r="C32" s="13"/>
       <c r="D32" s="13"/>
@@ -5126,9 +5146,9 @@
       </c>
       <c r="L32" s="14">
         <f ca="1"/>
-        <v>-24.057988095832854</v>
-      </c>
-      <c r="M32" s="12"/>
+        <v>-24.322027480591917</v>
+      </c>
+      <c r="M32" s="24"/>
       <c r="N32" s="12"/>
       <c r="O32" s="12"/>
       <c r="P32" s="12"/>
@@ -5156,9 +5176,9 @@
       </c>
       <c r="L33" s="14">
         <f ca="1"/>
-        <v>-987818.12838638504</v>
-      </c>
-      <c r="M33" s="12"/>
+        <v>-987684.44596481009</v>
+      </c>
+      <c r="M33" s="24"/>
       <c r="N33" s="12"/>
       <c r="O33" s="12"/>
       <c r="P33" s="12"/>
@@ -5186,9 +5206,9 @@
       </c>
       <c r="L34" s="14">
         <f ca="1"/>
-        <v>-24.069543758199998</v>
-      </c>
-      <c r="M34" s="12"/>
+        <v>-24.3296372615</v>
+      </c>
+      <c r="M34" s="24"/>
       <c r="N34" s="12"/>
       <c r="O34" s="12"/>
       <c r="P34" s="12"/>
@@ -5220,9 +5240,9 @@
       </c>
       <c r="L35" s="14">
         <f ca="1"/>
-        <v>-0.2778459895</v>
-      </c>
-      <c r="M35" s="12"/>
+        <v>-0.27420381030000002</v>
+      </c>
+      <c r="M35" s="24"/>
       <c r="N35" s="12"/>
       <c r="O35" s="12"/>
       <c r="P35" s="12"/>
@@ -5254,9 +5274,9 @@
       </c>
       <c r="L36" s="14">
         <f ca="1"/>
-        <v>-0.2778459895</v>
-      </c>
-      <c r="M36" s="12"/>
+        <v>-0.27420381030000002</v>
+      </c>
+      <c r="M36" s="24"/>
       <c r="N36" s="12"/>
       <c r="O36" s="12"/>
       <c r="P36" s="12"/>
@@ -5290,7 +5310,7 @@
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="M37" s="12"/>
+      <c r="M37" s="24"/>
       <c r="N37" s="12"/>
       <c r="O37" s="12"/>
       <c r="P37" s="12"/>
@@ -5324,7 +5344,7 @@
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="M38" s="12"/>
+      <c r="M38" s="24"/>
       <c r="N38" s="12"/>
       <c r="O38" s="12"/>
       <c r="P38" s="12"/>
@@ -5358,7 +5378,7 @@
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="M39" s="12"/>
+      <c r="M39" s="24"/>
       <c r="N39" s="12"/>
       <c r="O39" s="12"/>
       <c r="P39" s="12"/>
@@ -5377,7 +5397,7 @@
       </c>
       <c r="D40" s="13">
         <f ca="1">TODAY()</f>
-        <v>43642</v>
+        <v>43696</v>
       </c>
       <c r="E40" s="13"/>
       <c r="F40" s="13"/>
@@ -5391,9 +5411,9 @@
       </c>
       <c r="L40" s="14">
         <f ca="1"/>
-        <v>-4.2525211004000001</v>
-      </c>
-      <c r="M40" s="12"/>
+        <v>-2.3654869304999999</v>
+      </c>
+      <c r="M40" s="24"/>
       <c r="N40" s="12"/>
       <c r="O40" s="12"/>
       <c r="P40" s="12"/>
@@ -5412,7 +5432,7 @@
       </c>
       <c r="D41" s="13">
         <f ca="1">D40+90</f>
-        <v>43732</v>
+        <v>43786</v>
       </c>
       <c r="E41" s="13"/>
       <c r="F41" s="13"/>
@@ -5426,9 +5446,9 @@
       </c>
       <c r="L41" s="14">
         <f ca="1"/>
-        <v>-19.2613306788</v>
-      </c>
-      <c r="M41" s="12"/>
+        <v>-21.4157427104</v>
+      </c>
+      <c r="M41" s="24"/>
       <c r="N41" s="12"/>
       <c r="O41" s="12"/>
       <c r="P41" s="12"/>
@@ -5462,7 +5482,7 @@
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="M42" s="12"/>
+      <c r="M42" s="24"/>
       <c r="N42" s="12"/>
       <c r="O42" s="12"/>
       <c r="P42" s="12"/>
@@ -5496,7 +5516,7 @@
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="M43" s="12"/>
+      <c r="M43" s="24"/>
       <c r="N43" s="12"/>
       <c r="O43" s="12"/>
       <c r="P43" s="12"/>
@@ -5530,7 +5550,7 @@
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="M44" s="12"/>
+      <c r="M44" s="24"/>
       <c r="N44" s="12"/>
       <c r="O44" s="12"/>
       <c r="P44" s="12"/>
@@ -5564,7 +5584,7 @@
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="M45" s="12"/>
+      <c r="M45" s="24"/>
       <c r="N45" s="12"/>
       <c r="O45" s="12"/>
       <c r="P45" s="12"/>
@@ -5581,13 +5601,13 @@
       <c r="C46" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D46" s="24" t="str">
+      <c r="D46" s="25" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.CreateBullet(D36,D39,D37,D38,D40,D41,D44,D45,D42,D43)</f>
         <v>Trade.SpreadSheet.bulletPayment.t000x</v>
       </c>
-      <c r="E46" s="24"/>
-      <c r="F46" s="24"/>
-      <c r="G46" s="24"/>
+      <c r="E46" s="25"/>
+      <c r="F46" s="25"/>
+      <c r="G46" s="25"/>
       <c r="H46" s="13"/>
       <c r="I46" s="14"/>
       <c r="J46" s="13"/>
@@ -5599,7 +5619,7 @@
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="M46" s="12"/>
+      <c r="M46" s="24"/>
       <c r="N46" s="12"/>
       <c r="O46" s="12"/>
       <c r="P46" s="12"/>
@@ -5616,19 +5636,19 @@
       <c r="C47" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D47" s="24" t="str">
+      <c r="D47" s="25" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.ValueTradeFromMarket(D46,D37,C48:C52,D42,D35,D40)</f>
         <v>ValuationReport.LOCAL_USER.SpreadSheet.bulletPayment.t000x.QR_LIVE</v>
       </c>
-      <c r="E47" s="24"/>
-      <c r="F47" s="24"/>
-      <c r="G47" s="24"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="25"/>
       <c r="H47" s="13"/>
       <c r="I47" s="14"/>
       <c r="J47" s="13"/>
       <c r="K47" s="13"/>
       <c r="L47" s="12"/>
-      <c r="M47" s="12"/>
+      <c r="M47" s="24"/>
       <c r="N47" s="12"/>
       <c r="O47" s="12"/>
       <c r="P47" s="12"/>
@@ -5654,8 +5674,8 @@
       <c r="J48" s="13"/>
       <c r="K48" s="13"/>
       <c r="L48" s="12"/>
-      <c r="M48" s="12"/>
-      <c r="N48" s="12"/>
+      <c r="M48" s="24"/>
+      <c r="N48" s="24"/>
       <c r="O48" s="12"/>
       <c r="P48" s="12"/>
       <c r="Q48" s="12"/>
